--- a/datasets/uvdataset.xlsx
+++ b/datasets/uvdataset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisvalledor/Documents/processomics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lau/Documentos/processomics/datasets_prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5295860-5483-074A-9FC2-0675F6761E84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="proteome" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,16 @@
     <sheet name="geneexpression" sheetId="3" r:id="rId3"/>
     <sheet name="physiology" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,6 +39,459 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="1379">
   <si>
+    <t>Control-1</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Control-2</t>
+  </si>
+  <si>
+    <t>Control-3</t>
+  </si>
+  <si>
+    <t>1d2h-1</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>1d2h-2</t>
+  </si>
+  <si>
+    <t>1d2h-3</t>
+  </si>
+  <si>
+    <t>1d8h-1</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>1d8h-2</t>
+  </si>
+  <si>
+    <t>1d8h-3</t>
+  </si>
+  <si>
+    <t>2d8h-1</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>2d8h-2</t>
+  </si>
+  <si>
+    <t>2d8h-3</t>
+  </si>
+  <si>
+    <t>Recovered-1</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Recovered-2</t>
+  </si>
+  <si>
+    <t>Recovered-3</t>
+  </si>
+  <si>
+    <t>Lactic_Acid</t>
+  </si>
+  <si>
+    <t>Glycolyc_Acid</t>
+  </si>
+  <si>
+    <t>Pyruvic_Acid</t>
+  </si>
+  <si>
+    <t>Alanine</t>
+  </si>
+  <si>
+    <t>GMD_NA114002</t>
+  </si>
+  <si>
+    <t>Valine</t>
+  </si>
+  <si>
+    <t>Unknown_1</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>Serine_1</t>
+  </si>
+  <si>
+    <t>Ethanolamine</t>
+  </si>
+  <si>
+    <t>Phosphoric_Acid</t>
+  </si>
+  <si>
+    <t>Proline</t>
+  </si>
+  <si>
+    <t>Maleic_Acid</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>Succinic_Acid</t>
+  </si>
+  <si>
+    <t>Glyceric_Acid</t>
+  </si>
+  <si>
+    <t>Fumaric_Acid</t>
+  </si>
+  <si>
+    <t>Serine_2</t>
+  </si>
+  <si>
+    <t>Threonic_Acid</t>
+  </si>
+  <si>
+    <t>X2.methyl.1.3.Butanediol</t>
+  </si>
+  <si>
+    <t>Threonine</t>
+  </si>
+  <si>
+    <t>Ribonic_Acid</t>
+  </si>
+  <si>
+    <t>GMD_A142003</t>
+  </si>
+  <si>
+    <t>Similar_to_Aspartic_Acid</t>
+  </si>
+  <si>
+    <t>Beta.Alanine</t>
+  </si>
+  <si>
+    <t>Citramalic_Acid</t>
+  </si>
+  <si>
+    <t>Malic_Acid</t>
+  </si>
+  <si>
+    <t>Butylated_Hydroxytoluene</t>
+  </si>
+  <si>
+    <t>Pyroglutamic_acid</t>
+  </si>
+  <si>
+    <t>Aspartatic_acid</t>
+  </si>
+  <si>
+    <t>X2.Methyl.6.indolizinecarboxamide..</t>
+  </si>
+  <si>
+    <t>GMD_A157006</t>
+  </si>
+  <si>
+    <t>Arabinonic_Acid</t>
+  </si>
+  <si>
+    <t>Unknown_2</t>
+  </si>
+  <si>
+    <t>Glutamate</t>
+  </si>
+  <si>
+    <t>Xylonic_Acid</t>
+  </si>
+  <si>
+    <t>Unknown_Pentose_1</t>
+  </si>
+  <si>
+    <t>Xylose</t>
+  </si>
+  <si>
+    <t>Unknown_3</t>
+  </si>
+  <si>
+    <t>Unknown_4</t>
+  </si>
+  <si>
+    <t>Unknown_5</t>
+  </si>
+  <si>
+    <t>Inosose..</t>
+  </si>
+  <si>
+    <t>Hexose_1</t>
+  </si>
+  <si>
+    <t>Putrescine</t>
+  </si>
+  <si>
+    <t>B5_._EITTMS_N12C_NTAL_1744.8_1135EC07_.MSRI.</t>
+  </si>
+  <si>
+    <t>Lyxonic_acid</t>
+  </si>
+  <si>
+    <t>Unknown_Sugar_1</t>
+  </si>
+  <si>
+    <t>GMD_A178003</t>
+  </si>
+  <si>
+    <t>Shikimic_Acid</t>
+  </si>
+  <si>
+    <t>X3.4.5.Tris.trimethylsiloxy..1.cyclohexene.1.carboxylic_acid._trimethylsilyl_ester</t>
+  </si>
+  <si>
+    <t>Galactopyranoside</t>
+  </si>
+  <si>
+    <t>Pinitol</t>
+  </si>
+  <si>
+    <t>Dehydroascorbic_Acid_dimer</t>
+  </si>
+  <si>
+    <t>Quinic_Acid</t>
+  </si>
+  <si>
+    <t>Fructose_1</t>
+  </si>
+  <si>
+    <t>Fructose_2</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>Hexose_oxime.</t>
+  </si>
+  <si>
+    <t>Ononitol.Pinitol</t>
+  </si>
+  <si>
+    <t>X6H.Dibenzo.b.d.pyran.1.ol._3.hexyl.7.8.9.10.tetrahydro.6.6.9.trimethyl</t>
+  </si>
+  <si>
+    <t>Myo.Inositol</t>
+  </si>
+  <si>
+    <t>Unknown_6</t>
+  </si>
+  <si>
+    <t>Glucose._no_me_lo_creo</t>
+  </si>
+  <si>
+    <t>X1H.Purine.2.6.8.3H..trione._7.9.dihydro.1.3.7.9.tetrakis.tert.butyldimethylsilyl..</t>
+  </si>
+  <si>
+    <t>Neuraminic_acid.GMD_A228001</t>
+  </si>
+  <si>
+    <t>Unknown_7</t>
+  </si>
+  <si>
+    <t>Hexose_2</t>
+  </si>
+  <si>
+    <t>GMD_A238003</t>
+  </si>
+  <si>
+    <t>Lactose</t>
+  </si>
+  <si>
+    <t>Lactose._Disaccharide</t>
+  </si>
+  <si>
+    <t>Myo.Inositol.1Phosphate..</t>
+  </si>
+  <si>
+    <t>Unknown_8</t>
+  </si>
+  <si>
+    <t>beta.Galactopyranosyl.1.3.arabinose</t>
+  </si>
+  <si>
+    <t>GMD_A252005</t>
+  </si>
+  <si>
+    <t>Unknown_Dissacharide_2</t>
+  </si>
+  <si>
+    <t>Unknown_Dissacharide_3</t>
+  </si>
+  <si>
+    <t>Unknown_Dissacharide_4</t>
+  </si>
+  <si>
+    <t>Sucrose</t>
+  </si>
+  <si>
+    <t>Unknown_Dissacharide_5</t>
+  </si>
+  <si>
+    <t>Glucopyranoside_Dissacharide</t>
+  </si>
+  <si>
+    <t>Unknown_9_.2.Hydroxymandelic_acid._ethyl_ester..</t>
+  </si>
+  <si>
+    <t>Quinic_Acid..</t>
+  </si>
+  <si>
+    <t>Salicylic_Acid.glucopyranoside_</t>
+  </si>
+  <si>
+    <t>Epicatechin</t>
+  </si>
+  <si>
+    <t>Unknown_10</t>
+  </si>
+  <si>
+    <t>A201005.101</t>
+  </si>
+  <si>
+    <t>Epigallocatechin</t>
+  </si>
+  <si>
+    <t>Unknown_11</t>
+  </si>
+  <si>
+    <t>Galactinol</t>
+  </si>
+  <si>
+    <t>Unknown_12</t>
+  </si>
+  <si>
+    <t>GMD_A318004</t>
+  </si>
+  <si>
+    <t>GMD_A311002</t>
+  </si>
+  <si>
+    <t>Raffinose</t>
+  </si>
+  <si>
+    <t>Kestose</t>
+  </si>
+  <si>
+    <t>Phenol</t>
+  </si>
+  <si>
+    <t>GMD_A159012</t>
+  </si>
+  <si>
+    <t>Unknown_1_.fame.</t>
+  </si>
+  <si>
+    <t>C16.3.7.10.13.</t>
+  </si>
+  <si>
+    <t>C16.0a</t>
+  </si>
+  <si>
+    <t>C16.0b</t>
+  </si>
+  <si>
+    <t>C18.2_.9.12.</t>
+  </si>
+  <si>
+    <t>C18.3_.9.12.15.</t>
+  </si>
+  <si>
+    <t>C18.0</t>
+  </si>
+  <si>
+    <t>Unknown_2_.sterol.</t>
+  </si>
+  <si>
+    <t>X1.Phenanthrenecarboxylic_acid_a</t>
+  </si>
+  <si>
+    <t>X1.Phenanthrenecarboxylic_acid_b</t>
+  </si>
+  <si>
+    <t>Methyl_abietate</t>
+  </si>
+  <si>
+    <t>X1.Phenanthrenecarboxylic_Acid_c</t>
+  </si>
+  <si>
+    <t>X1.Phenanthrenecarboxylic_acid_d</t>
+  </si>
+  <si>
+    <t>X1.Naphthalenecarboxylic_acid</t>
+  </si>
+  <si>
+    <t>X8α.Podocarp.13.en.15.oic_acid</t>
+  </si>
+  <si>
+    <t>Methyl.8α.12α.epoxy.13α.14.dihydroxyabietanoate</t>
+  </si>
+  <si>
+    <t>Oleamide_.C18.1.9._amide.</t>
+  </si>
+  <si>
+    <t>Unknown_3_.fame.</t>
+  </si>
+  <si>
+    <t>Tocopherol</t>
+  </si>
+  <si>
+    <t>Campesterol</t>
+  </si>
+  <si>
+    <t>Stigmasterol</t>
+  </si>
+  <si>
+    <t>GMD_A361001</t>
+  </si>
+  <si>
+    <t>ELIP</t>
+  </si>
+  <si>
+    <t>APX</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>GSTU</t>
+  </si>
+  <si>
+    <t>RBCA</t>
+  </si>
+  <si>
+    <t>RBCS</t>
+  </si>
+  <si>
+    <t>Chl_a</t>
+  </si>
+  <si>
+    <t>Chl_b</t>
+  </si>
+  <si>
+    <t>Carotenoids</t>
+  </si>
+  <si>
+    <t>Fv.Fm</t>
+  </si>
+  <si>
+    <t>QY</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
     <t>X6093823</t>
   </si>
   <si>
@@ -3714,465 +4174,12 @@
   </si>
   <si>
     <t>X226458581</t>
-  </si>
-  <si>
-    <t>Control-1</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Control-2</t>
-  </si>
-  <si>
-    <t>Control-3</t>
-  </si>
-  <si>
-    <t>1d2h-1</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>1d2h-2</t>
-  </si>
-  <si>
-    <t>1d2h-3</t>
-  </si>
-  <si>
-    <t>1d8h-1</t>
-  </si>
-  <si>
-    <t>8h</t>
-  </si>
-  <si>
-    <t>1d8h-2</t>
-  </si>
-  <si>
-    <t>1d8h-3</t>
-  </si>
-  <si>
-    <t>2d8h-1</t>
-  </si>
-  <si>
-    <t>2d</t>
-  </si>
-  <si>
-    <t>2d8h-2</t>
-  </si>
-  <si>
-    <t>2d8h-3</t>
-  </si>
-  <si>
-    <t>Recovered-1</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>Recovered-2</t>
-  </si>
-  <si>
-    <t>Recovered-3</t>
-  </si>
-  <si>
-    <t>Lactic_Acid</t>
-  </si>
-  <si>
-    <t>Glycolyc_Acid</t>
-  </si>
-  <si>
-    <t>Pyruvic_Acid</t>
-  </si>
-  <si>
-    <t>Alanine</t>
-  </si>
-  <si>
-    <t>GMD_NA114002</t>
-  </si>
-  <si>
-    <t>Valine</t>
-  </si>
-  <si>
-    <t>Unknown_1</t>
-  </si>
-  <si>
-    <t>Urea</t>
-  </si>
-  <si>
-    <t>Serine_1</t>
-  </si>
-  <si>
-    <t>Ethanolamine</t>
-  </si>
-  <si>
-    <t>Phosphoric_Acid</t>
-  </si>
-  <si>
-    <t>Proline</t>
-  </si>
-  <si>
-    <t>Maleic_Acid</t>
-  </si>
-  <si>
-    <t>Glycine</t>
-  </si>
-  <si>
-    <t>Succinic_Acid</t>
-  </si>
-  <si>
-    <t>Glyceric_Acid</t>
-  </si>
-  <si>
-    <t>Fumaric_Acid</t>
-  </si>
-  <si>
-    <t>Serine_2</t>
-  </si>
-  <si>
-    <t>Threonic_Acid</t>
-  </si>
-  <si>
-    <t>X2.methyl.1.3.Butanediol</t>
-  </si>
-  <si>
-    <t>Threonine</t>
-  </si>
-  <si>
-    <t>Ribonic_Acid</t>
-  </si>
-  <si>
-    <t>GMD_A142003</t>
-  </si>
-  <si>
-    <t>Similar_to_Aspartic_Acid</t>
-  </si>
-  <si>
-    <t>Beta.Alanine</t>
-  </si>
-  <si>
-    <t>Citramalic_Acid</t>
-  </si>
-  <si>
-    <t>Malic_Acid</t>
-  </si>
-  <si>
-    <t>Butylated_Hydroxytoluene</t>
-  </si>
-  <si>
-    <t>Pyroglutamic_acid</t>
-  </si>
-  <si>
-    <t>Aspartatic_acid</t>
-  </si>
-  <si>
-    <t>X2.Methyl.6.indolizinecarboxamide..</t>
-  </si>
-  <si>
-    <t>GMD_A157006</t>
-  </si>
-  <si>
-    <t>Arabinonic_Acid</t>
-  </si>
-  <si>
-    <t>Unknown_2</t>
-  </si>
-  <si>
-    <t>Glutamate</t>
-  </si>
-  <si>
-    <t>Xylonic_Acid</t>
-  </si>
-  <si>
-    <t>Unknown_Pentose_1</t>
-  </si>
-  <si>
-    <t>Xylose</t>
-  </si>
-  <si>
-    <t>Unknown_3</t>
-  </si>
-  <si>
-    <t>Unknown_4</t>
-  </si>
-  <si>
-    <t>Unknown_5</t>
-  </si>
-  <si>
-    <t>Inosose..</t>
-  </si>
-  <si>
-    <t>Hexose_1</t>
-  </si>
-  <si>
-    <t>Putrescine</t>
-  </si>
-  <si>
-    <t>B5_._EITTMS_N12C_NTAL_1744.8_1135EC07_.MSRI.</t>
-  </si>
-  <si>
-    <t>Lyxonic_acid</t>
-  </si>
-  <si>
-    <t>Unknown_Sugar_1</t>
-  </si>
-  <si>
-    <t>GMD_A178003</t>
-  </si>
-  <si>
-    <t>Shikimic_Acid</t>
-  </si>
-  <si>
-    <t>X3.4.5.Tris.trimethylsiloxy..1.cyclohexene.1.carboxylic_acid._trimethylsilyl_ester</t>
-  </si>
-  <si>
-    <t>Galactopyranoside</t>
-  </si>
-  <si>
-    <t>Pinitol</t>
-  </si>
-  <si>
-    <t>Dehydroascorbic_Acid_dimer</t>
-  </si>
-  <si>
-    <t>Quinic_Acid</t>
-  </si>
-  <si>
-    <t>Fructose_1</t>
-  </si>
-  <si>
-    <t>Fructose_2</t>
-  </si>
-  <si>
-    <t>Glucose</t>
-  </si>
-  <si>
-    <t>Hexose_oxime.</t>
-  </si>
-  <si>
-    <t>Ononitol.Pinitol</t>
-  </si>
-  <si>
-    <t>X6H.Dibenzo.b.d.pyran.1.ol._3.hexyl.7.8.9.10.tetrahydro.6.6.9.trimethyl</t>
-  </si>
-  <si>
-    <t>Myo.Inositol</t>
-  </si>
-  <si>
-    <t>Unknown_6</t>
-  </si>
-  <si>
-    <t>Glucose._no_me_lo_creo</t>
-  </si>
-  <si>
-    <t>X1H.Purine.2.6.8.3H..trione._7.9.dihydro.1.3.7.9.tetrakis.tert.butyldimethylsilyl..</t>
-  </si>
-  <si>
-    <t>Neuraminic_acid.GMD_A228001</t>
-  </si>
-  <si>
-    <t>Unknown_7</t>
-  </si>
-  <si>
-    <t>Hexose_2</t>
-  </si>
-  <si>
-    <t>GMD_A238003</t>
-  </si>
-  <si>
-    <t>Lactose</t>
-  </si>
-  <si>
-    <t>Lactose._Disaccharide</t>
-  </si>
-  <si>
-    <t>Myo.Inositol.1Phosphate..</t>
-  </si>
-  <si>
-    <t>Unknown_8</t>
-  </si>
-  <si>
-    <t>beta.Galactopyranosyl.1.3.arabinose</t>
-  </si>
-  <si>
-    <t>GMD_A252005</t>
-  </si>
-  <si>
-    <t>Unknown_Dissacharide_2</t>
-  </si>
-  <si>
-    <t>Unknown_Dissacharide_3</t>
-  </si>
-  <si>
-    <t>Unknown_Dissacharide_4</t>
-  </si>
-  <si>
-    <t>Sucrose</t>
-  </si>
-  <si>
-    <t>Unknown_Dissacharide_5</t>
-  </si>
-  <si>
-    <t>Glucopyranoside_Dissacharide</t>
-  </si>
-  <si>
-    <t>Unknown_9_.2.Hydroxymandelic_acid._ethyl_ester..</t>
-  </si>
-  <si>
-    <t>Quinic_Acid..</t>
-  </si>
-  <si>
-    <t>Salicylic_Acid.glucopyranoside_</t>
-  </si>
-  <si>
-    <t>Epicatechin</t>
-  </si>
-  <si>
-    <t>Unknown_10</t>
-  </si>
-  <si>
-    <t>A201005.101</t>
-  </si>
-  <si>
-    <t>Epigallocatechin</t>
-  </si>
-  <si>
-    <t>Unknown_11</t>
-  </si>
-  <si>
-    <t>Galactinol</t>
-  </si>
-  <si>
-    <t>Unknown_12</t>
-  </si>
-  <si>
-    <t>GMD_A318004</t>
-  </si>
-  <si>
-    <t>GMD_A311002</t>
-  </si>
-  <si>
-    <t>Raffinose</t>
-  </si>
-  <si>
-    <t>Kestose</t>
-  </si>
-  <si>
-    <t>Phenol</t>
-  </si>
-  <si>
-    <t>GMD_A159012</t>
-  </si>
-  <si>
-    <t>Unknown_1_.fame.</t>
-  </si>
-  <si>
-    <t>C16.3.7.10.13.</t>
-  </si>
-  <si>
-    <t>C16.0a</t>
-  </si>
-  <si>
-    <t>C16.0b</t>
-  </si>
-  <si>
-    <t>C18.2_.9.12.</t>
-  </si>
-  <si>
-    <t>C18.3_.9.12.15.</t>
-  </si>
-  <si>
-    <t>C18.0</t>
-  </si>
-  <si>
-    <t>Unknown_2_.sterol.</t>
-  </si>
-  <si>
-    <t>X1.Phenanthrenecarboxylic_acid_a</t>
-  </si>
-  <si>
-    <t>X1.Phenanthrenecarboxylic_acid_b</t>
-  </si>
-  <si>
-    <t>Methyl_abietate</t>
-  </si>
-  <si>
-    <t>X1.Phenanthrenecarboxylic_Acid_c</t>
-  </si>
-  <si>
-    <t>X1.Phenanthrenecarboxylic_acid_d</t>
-  </si>
-  <si>
-    <t>X1.Naphthalenecarboxylic_acid</t>
-  </si>
-  <si>
-    <t>X8α.Podocarp.13.en.15.oic_acid</t>
-  </si>
-  <si>
-    <t>Methyl.8α.12α.epoxy.13α.14.dihydroxyabietanoate</t>
-  </si>
-  <si>
-    <t>Oleamide_.C18.1.9._amide.</t>
-  </si>
-  <si>
-    <t>Unknown_3_.fame.</t>
-  </si>
-  <si>
-    <t>Tocopherol</t>
-  </si>
-  <si>
-    <t>Campesterol</t>
-  </si>
-  <si>
-    <t>Stigmasterol</t>
-  </si>
-  <si>
-    <t>GMD_A361001</t>
-  </si>
-  <si>
-    <t>ELIP</t>
-  </si>
-  <si>
-    <t>APX</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>GSTU</t>
-  </si>
-  <si>
-    <t>RBCA</t>
-  </si>
-  <si>
-    <t>RBCS</t>
-  </si>
-  <si>
-    <t>Chl_a</t>
-  </si>
-  <si>
-    <t>Chl_b</t>
-  </si>
-  <si>
-    <t>Carotenoids</t>
-  </si>
-  <si>
-    <t>Fv.Fm</t>
-  </si>
-  <si>
-    <t>QY</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>Treatment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4234,10 +4241,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4245,6 +4252,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4512,3713 +4522,3713 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AUH16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" t="s">
+        <v>166</v>
+      </c>
+      <c r="S1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W1" t="s">
+        <v>171</v>
+      </c>
+      <c r="X1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>228</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>233</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>236</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>238</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>239</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>240</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>241</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>242</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>247</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>248</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>252</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>254</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>255</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>256</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>257</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>259</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>264</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>265</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>266</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>267</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>270</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>271</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>272</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>273</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>274</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>276</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>277</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>278</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>279</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>280</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>281</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>282</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>283</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>284</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>285</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>286</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>287</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>288</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>289</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>290</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>291</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>292</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>293</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>294</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>295</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>296</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>297</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>298</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>299</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>300</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>301</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>302</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>303</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>304</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>305</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>306</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>307</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>308</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>309</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>310</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>311</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>312</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>313</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>314</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>315</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>316</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>317</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>318</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>319</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>320</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>321</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>322</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>323</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>324</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>325</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>326</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>327</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>328</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>329</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>330</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>331</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>332</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>333</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>334</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>335</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>336</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>337</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>338</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>339</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>340</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>342</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>343</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>344</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>345</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>346</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>347</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>348</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>349</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>350</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>351</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>352</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>353</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>354</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>355</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>356</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>357</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>358</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>359</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>360</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>361</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>362</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>363</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>364</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>365</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>366</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>367</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>368</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>369</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>370</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>371</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>372</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>373</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>374</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>375</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>376</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>377</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>378</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>379</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>380</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>381</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>382</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>383</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>384</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>385</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>386</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>387</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>388</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>389</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>390</v>
+      </c>
+      <c r="II1" t="s">
+        <v>391</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>392</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>393</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>394</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>395</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>396</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>397</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>398</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>399</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>400</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>401</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>402</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>403</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>404</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>405</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>406</v>
+      </c>
+      <c r="IY1" t="s">
+        <v>407</v>
+      </c>
+      <c r="IZ1" t="s">
+        <v>408</v>
+      </c>
+      <c r="JA1" t="s">
+        <v>409</v>
+      </c>
+      <c r="JB1" t="s">
+        <v>410</v>
+      </c>
+      <c r="JC1" t="s">
+        <v>411</v>
+      </c>
+      <c r="JD1" t="s">
+        <v>412</v>
+      </c>
+      <c r="JE1" t="s">
+        <v>413</v>
+      </c>
+      <c r="JF1" t="s">
+        <v>414</v>
+      </c>
+      <c r="JG1" t="s">
+        <v>415</v>
+      </c>
+      <c r="JH1" t="s">
+        <v>416</v>
+      </c>
+      <c r="JI1" t="s">
+        <v>417</v>
+      </c>
+      <c r="JJ1" t="s">
+        <v>418</v>
+      </c>
+      <c r="JK1" t="s">
+        <v>419</v>
+      </c>
+      <c r="JL1" t="s">
+        <v>420</v>
+      </c>
+      <c r="JM1" t="s">
+        <v>421</v>
+      </c>
+      <c r="JN1" t="s">
+        <v>422</v>
+      </c>
+      <c r="JO1" t="s">
+        <v>423</v>
+      </c>
+      <c r="JP1" t="s">
+        <v>424</v>
+      </c>
+      <c r="JQ1" t="s">
+        <v>425</v>
+      </c>
+      <c r="JR1" t="s">
+        <v>426</v>
+      </c>
+      <c r="JS1" t="s">
+        <v>427</v>
+      </c>
+      <c r="JT1" t="s">
+        <v>428</v>
+      </c>
+      <c r="JU1" t="s">
+        <v>429</v>
+      </c>
+      <c r="JV1" t="s">
+        <v>430</v>
+      </c>
+      <c r="JW1" t="s">
+        <v>431</v>
+      </c>
+      <c r="JX1" t="s">
+        <v>432</v>
+      </c>
+      <c r="JY1" t="s">
+        <v>433</v>
+      </c>
+      <c r="JZ1" t="s">
+        <v>434</v>
+      </c>
+      <c r="KA1" t="s">
+        <v>435</v>
+      </c>
+      <c r="KB1" t="s">
+        <v>436</v>
+      </c>
+      <c r="KC1" t="s">
+        <v>437</v>
+      </c>
+      <c r="KD1" t="s">
+        <v>438</v>
+      </c>
+      <c r="KE1" t="s">
+        <v>439</v>
+      </c>
+      <c r="KF1" t="s">
+        <v>440</v>
+      </c>
+      <c r="KG1" t="s">
+        <v>441</v>
+      </c>
+      <c r="KH1" t="s">
+        <v>442</v>
+      </c>
+      <c r="KI1" t="s">
+        <v>443</v>
+      </c>
+      <c r="KJ1" t="s">
+        <v>444</v>
+      </c>
+      <c r="KK1" t="s">
+        <v>445</v>
+      </c>
+      <c r="KL1" t="s">
+        <v>446</v>
+      </c>
+      <c r="KM1" t="s">
+        <v>447</v>
+      </c>
+      <c r="KN1" t="s">
+        <v>448</v>
+      </c>
+      <c r="KO1" t="s">
+        <v>449</v>
+      </c>
+      <c r="KP1" t="s">
+        <v>450</v>
+      </c>
+      <c r="KQ1" t="s">
+        <v>451</v>
+      </c>
+      <c r="KR1" t="s">
+        <v>452</v>
+      </c>
+      <c r="KS1" t="s">
+        <v>453</v>
+      </c>
+      <c r="KT1" t="s">
+        <v>454</v>
+      </c>
+      <c r="KU1" t="s">
+        <v>455</v>
+      </c>
+      <c r="KV1" t="s">
+        <v>456</v>
+      </c>
+      <c r="KW1" t="s">
+        <v>457</v>
+      </c>
+      <c r="KX1" t="s">
+        <v>458</v>
+      </c>
+      <c r="KY1" t="s">
+        <v>459</v>
+      </c>
+      <c r="KZ1" t="s">
+        <v>460</v>
+      </c>
+      <c r="LA1" t="s">
+        <v>461</v>
+      </c>
+      <c r="LB1" t="s">
+        <v>462</v>
+      </c>
+      <c r="LC1" t="s">
+        <v>463</v>
+      </c>
+      <c r="LD1" t="s">
+        <v>464</v>
+      </c>
+      <c r="LE1" t="s">
+        <v>465</v>
+      </c>
+      <c r="LF1" t="s">
+        <v>466</v>
+      </c>
+      <c r="LG1" t="s">
+        <v>467</v>
+      </c>
+      <c r="LH1" t="s">
+        <v>468</v>
+      </c>
+      <c r="LI1" t="s">
+        <v>469</v>
+      </c>
+      <c r="LJ1" t="s">
+        <v>470</v>
+      </c>
+      <c r="LK1" t="s">
+        <v>471</v>
+      </c>
+      <c r="LL1" t="s">
+        <v>472</v>
+      </c>
+      <c r="LM1" t="s">
+        <v>473</v>
+      </c>
+      <c r="LN1" t="s">
+        <v>474</v>
+      </c>
+      <c r="LO1" t="s">
+        <v>475</v>
+      </c>
+      <c r="LP1" t="s">
+        <v>476</v>
+      </c>
+      <c r="LQ1" t="s">
+        <v>477</v>
+      </c>
+      <c r="LR1" t="s">
+        <v>478</v>
+      </c>
+      <c r="LS1" t="s">
+        <v>479</v>
+      </c>
+      <c r="LT1" t="s">
+        <v>480</v>
+      </c>
+      <c r="LU1" t="s">
+        <v>481</v>
+      </c>
+      <c r="LV1" t="s">
+        <v>482</v>
+      </c>
+      <c r="LW1" t="s">
+        <v>483</v>
+      </c>
+      <c r="LX1" t="s">
+        <v>484</v>
+      </c>
+      <c r="LY1" t="s">
+        <v>485</v>
+      </c>
+      <c r="LZ1" t="s">
+        <v>486</v>
+      </c>
+      <c r="MA1" t="s">
+        <v>487</v>
+      </c>
+      <c r="MB1" t="s">
+        <v>488</v>
+      </c>
+      <c r="MC1" t="s">
+        <v>489</v>
+      </c>
+      <c r="MD1" t="s">
+        <v>490</v>
+      </c>
+      <c r="ME1" t="s">
+        <v>491</v>
+      </c>
+      <c r="MF1" t="s">
+        <v>492</v>
+      </c>
+      <c r="MG1" t="s">
+        <v>493</v>
+      </c>
+      <c r="MH1" t="s">
+        <v>494</v>
+      </c>
+      <c r="MI1" t="s">
+        <v>495</v>
+      </c>
+      <c r="MJ1" t="s">
+        <v>496</v>
+      </c>
+      <c r="MK1" t="s">
+        <v>497</v>
+      </c>
+      <c r="ML1" t="s">
+        <v>498</v>
+      </c>
+      <c r="MM1" t="s">
+        <v>499</v>
+      </c>
+      <c r="MN1" t="s">
+        <v>500</v>
+      </c>
+      <c r="MO1" t="s">
+        <v>501</v>
+      </c>
+      <c r="MP1" t="s">
+        <v>502</v>
+      </c>
+      <c r="MQ1" t="s">
+        <v>503</v>
+      </c>
+      <c r="MR1" t="s">
+        <v>504</v>
+      </c>
+      <c r="MS1" t="s">
+        <v>505</v>
+      </c>
+      <c r="MT1" t="s">
+        <v>506</v>
+      </c>
+      <c r="MU1" t="s">
+        <v>507</v>
+      </c>
+      <c r="MV1" t="s">
+        <v>508</v>
+      </c>
+      <c r="MW1" t="s">
+        <v>509</v>
+      </c>
+      <c r="MX1" t="s">
+        <v>510</v>
+      </c>
+      <c r="MY1" t="s">
+        <v>511</v>
+      </c>
+      <c r="MZ1" t="s">
+        <v>512</v>
+      </c>
+      <c r="NA1" t="s">
+        <v>513</v>
+      </c>
+      <c r="NB1" t="s">
+        <v>514</v>
+      </c>
+      <c r="NC1" t="s">
+        <v>515</v>
+      </c>
+      <c r="ND1" t="s">
+        <v>516</v>
+      </c>
+      <c r="NE1" t="s">
+        <v>517</v>
+      </c>
+      <c r="NF1" t="s">
+        <v>518</v>
+      </c>
+      <c r="NG1" t="s">
+        <v>519</v>
+      </c>
+      <c r="NH1" t="s">
+        <v>520</v>
+      </c>
+      <c r="NI1" t="s">
+        <v>521</v>
+      </c>
+      <c r="NJ1" t="s">
+        <v>522</v>
+      </c>
+      <c r="NK1" t="s">
+        <v>523</v>
+      </c>
+      <c r="NL1" t="s">
+        <v>524</v>
+      </c>
+      <c r="NM1" t="s">
+        <v>525</v>
+      </c>
+      <c r="NN1" t="s">
+        <v>526</v>
+      </c>
+      <c r="NO1" t="s">
+        <v>527</v>
+      </c>
+      <c r="NP1" t="s">
+        <v>528</v>
+      </c>
+      <c r="NQ1" t="s">
+        <v>529</v>
+      </c>
+      <c r="NR1" t="s">
+        <v>530</v>
+      </c>
+      <c r="NS1" t="s">
+        <v>531</v>
+      </c>
+      <c r="NT1" t="s">
+        <v>532</v>
+      </c>
+      <c r="NU1" t="s">
+        <v>533</v>
+      </c>
+      <c r="NV1" t="s">
+        <v>534</v>
+      </c>
+      <c r="NW1" t="s">
+        <v>535</v>
+      </c>
+      <c r="NX1" t="s">
+        <v>536</v>
+      </c>
+      <c r="NY1" t="s">
+        <v>537</v>
+      </c>
+      <c r="NZ1" t="s">
+        <v>538</v>
+      </c>
+      <c r="OA1" t="s">
+        <v>539</v>
+      </c>
+      <c r="OB1" t="s">
+        <v>540</v>
+      </c>
+      <c r="OC1" t="s">
+        <v>541</v>
+      </c>
+      <c r="OD1" t="s">
+        <v>542</v>
+      </c>
+      <c r="OE1" t="s">
+        <v>543</v>
+      </c>
+      <c r="OF1" t="s">
+        <v>544</v>
+      </c>
+      <c r="OG1" t="s">
+        <v>545</v>
+      </c>
+      <c r="OH1" t="s">
+        <v>546</v>
+      </c>
+      <c r="OI1" t="s">
+        <v>547</v>
+      </c>
+      <c r="OJ1" t="s">
+        <v>548</v>
+      </c>
+      <c r="OK1" t="s">
+        <v>549</v>
+      </c>
+      <c r="OL1" t="s">
+        <v>550</v>
+      </c>
+      <c r="OM1" t="s">
+        <v>551</v>
+      </c>
+      <c r="ON1" t="s">
+        <v>552</v>
+      </c>
+      <c r="OO1" t="s">
+        <v>553</v>
+      </c>
+      <c r="OP1" t="s">
+        <v>554</v>
+      </c>
+      <c r="OQ1" t="s">
+        <v>555</v>
+      </c>
+      <c r="OR1" t="s">
+        <v>556</v>
+      </c>
+      <c r="OS1" t="s">
+        <v>557</v>
+      </c>
+      <c r="OT1" t="s">
+        <v>558</v>
+      </c>
+      <c r="OU1" t="s">
+        <v>559</v>
+      </c>
+      <c r="OV1" t="s">
+        <v>560</v>
+      </c>
+      <c r="OW1" t="s">
+        <v>561</v>
+      </c>
+      <c r="OX1" t="s">
+        <v>562</v>
+      </c>
+      <c r="OY1" t="s">
+        <v>563</v>
+      </c>
+      <c r="OZ1" t="s">
+        <v>564</v>
+      </c>
+      <c r="PA1" t="s">
+        <v>565</v>
+      </c>
+      <c r="PB1" t="s">
+        <v>566</v>
+      </c>
+      <c r="PC1" t="s">
+        <v>567</v>
+      </c>
+      <c r="PD1" t="s">
+        <v>568</v>
+      </c>
+      <c r="PE1" t="s">
+        <v>569</v>
+      </c>
+      <c r="PF1" t="s">
+        <v>570</v>
+      </c>
+      <c r="PG1" t="s">
+        <v>571</v>
+      </c>
+      <c r="PH1" t="s">
+        <v>572</v>
+      </c>
+      <c r="PI1" t="s">
+        <v>573</v>
+      </c>
+      <c r="PJ1" t="s">
+        <v>574</v>
+      </c>
+      <c r="PK1" t="s">
+        <v>575</v>
+      </c>
+      <c r="PL1" t="s">
+        <v>576</v>
+      </c>
+      <c r="PM1" t="s">
+        <v>577</v>
+      </c>
+      <c r="PN1" t="s">
+        <v>578</v>
+      </c>
+      <c r="PO1" t="s">
+        <v>579</v>
+      </c>
+      <c r="PP1" t="s">
+        <v>580</v>
+      </c>
+      <c r="PQ1" t="s">
+        <v>581</v>
+      </c>
+      <c r="PR1" t="s">
+        <v>582</v>
+      </c>
+      <c r="PS1" t="s">
+        <v>583</v>
+      </c>
+      <c r="PT1" t="s">
+        <v>584</v>
+      </c>
+      <c r="PU1" t="s">
+        <v>585</v>
+      </c>
+      <c r="PV1" t="s">
+        <v>586</v>
+      </c>
+      <c r="PW1" t="s">
+        <v>587</v>
+      </c>
+      <c r="PX1" t="s">
+        <v>588</v>
+      </c>
+      <c r="PY1" t="s">
+        <v>589</v>
+      </c>
+      <c r="PZ1" t="s">
+        <v>590</v>
+      </c>
+      <c r="QA1" t="s">
+        <v>591</v>
+      </c>
+      <c r="QB1" t="s">
+        <v>592</v>
+      </c>
+      <c r="QC1" t="s">
+        <v>593</v>
+      </c>
+      <c r="QD1" t="s">
+        <v>594</v>
+      </c>
+      <c r="QE1" t="s">
+        <v>595</v>
+      </c>
+      <c r="QF1" t="s">
+        <v>596</v>
+      </c>
+      <c r="QG1" t="s">
+        <v>597</v>
+      </c>
+      <c r="QH1" t="s">
+        <v>598</v>
+      </c>
+      <c r="QI1" t="s">
+        <v>599</v>
+      </c>
+      <c r="QJ1" t="s">
+        <v>600</v>
+      </c>
+      <c r="QK1" t="s">
+        <v>601</v>
+      </c>
+      <c r="QL1" t="s">
+        <v>602</v>
+      </c>
+      <c r="QM1" t="s">
+        <v>603</v>
+      </c>
+      <c r="QN1" t="s">
+        <v>604</v>
+      </c>
+      <c r="QO1" t="s">
+        <v>605</v>
+      </c>
+      <c r="QP1" t="s">
+        <v>606</v>
+      </c>
+      <c r="QQ1" t="s">
+        <v>607</v>
+      </c>
+      <c r="QR1" t="s">
+        <v>608</v>
+      </c>
+      <c r="QS1" t="s">
+        <v>609</v>
+      </c>
+      <c r="QT1" t="s">
+        <v>610</v>
+      </c>
+      <c r="QU1" t="s">
+        <v>611</v>
+      </c>
+      <c r="QV1" t="s">
+        <v>612</v>
+      </c>
+      <c r="QW1" t="s">
+        <v>613</v>
+      </c>
+      <c r="QX1" t="s">
+        <v>614</v>
+      </c>
+      <c r="QY1" t="s">
+        <v>615</v>
+      </c>
+      <c r="QZ1" t="s">
+        <v>616</v>
+      </c>
+      <c r="RA1" t="s">
+        <v>617</v>
+      </c>
+      <c r="RB1" t="s">
+        <v>618</v>
+      </c>
+      <c r="RC1" t="s">
+        <v>619</v>
+      </c>
+      <c r="RD1" t="s">
+        <v>620</v>
+      </c>
+      <c r="RE1" t="s">
+        <v>621</v>
+      </c>
+      <c r="RF1" t="s">
+        <v>622</v>
+      </c>
+      <c r="RG1" t="s">
+        <v>623</v>
+      </c>
+      <c r="RH1" t="s">
+        <v>624</v>
+      </c>
+      <c r="RI1" t="s">
+        <v>625</v>
+      </c>
+      <c r="RJ1" t="s">
+        <v>626</v>
+      </c>
+      <c r="RK1" t="s">
+        <v>627</v>
+      </c>
+      <c r="RL1" t="s">
+        <v>628</v>
+      </c>
+      <c r="RM1" t="s">
+        <v>629</v>
+      </c>
+      <c r="RN1" t="s">
+        <v>630</v>
+      </c>
+      <c r="RO1" t="s">
+        <v>631</v>
+      </c>
+      <c r="RP1" t="s">
+        <v>632</v>
+      </c>
+      <c r="RQ1" t="s">
+        <v>633</v>
+      </c>
+      <c r="RR1" t="s">
+        <v>634</v>
+      </c>
+      <c r="RS1" t="s">
+        <v>635</v>
+      </c>
+      <c r="RT1" t="s">
+        <v>636</v>
+      </c>
+      <c r="RU1" t="s">
+        <v>637</v>
+      </c>
+      <c r="RV1" t="s">
+        <v>638</v>
+      </c>
+      <c r="RW1" t="s">
+        <v>639</v>
+      </c>
+      <c r="RX1" t="s">
+        <v>640</v>
+      </c>
+      <c r="RY1" t="s">
+        <v>641</v>
+      </c>
+      <c r="RZ1" t="s">
+        <v>642</v>
+      </c>
+      <c r="SA1" t="s">
+        <v>643</v>
+      </c>
+      <c r="SB1" t="s">
+        <v>644</v>
+      </c>
+      <c r="SC1" t="s">
+        <v>645</v>
+      </c>
+      <c r="SD1" t="s">
+        <v>646</v>
+      </c>
+      <c r="SE1" t="s">
+        <v>647</v>
+      </c>
+      <c r="SF1" t="s">
+        <v>648</v>
+      </c>
+      <c r="SG1" t="s">
+        <v>649</v>
+      </c>
+      <c r="SH1" t="s">
+        <v>650</v>
+      </c>
+      <c r="SI1" t="s">
+        <v>651</v>
+      </c>
+      <c r="SJ1" t="s">
+        <v>652</v>
+      </c>
+      <c r="SK1" t="s">
+        <v>653</v>
+      </c>
+      <c r="SL1" t="s">
+        <v>654</v>
+      </c>
+      <c r="SM1" t="s">
+        <v>655</v>
+      </c>
+      <c r="SN1" t="s">
+        <v>656</v>
+      </c>
+      <c r="SO1" t="s">
+        <v>657</v>
+      </c>
+      <c r="SP1" t="s">
+        <v>658</v>
+      </c>
+      <c r="SQ1" t="s">
+        <v>659</v>
+      </c>
+      <c r="SR1" t="s">
+        <v>660</v>
+      </c>
+      <c r="SS1" t="s">
+        <v>661</v>
+      </c>
+      <c r="ST1" t="s">
+        <v>662</v>
+      </c>
+      <c r="SU1" t="s">
+        <v>663</v>
+      </c>
+      <c r="SV1" t="s">
+        <v>664</v>
+      </c>
+      <c r="SW1" t="s">
+        <v>665</v>
+      </c>
+      <c r="SX1" t="s">
+        <v>666</v>
+      </c>
+      <c r="SY1" t="s">
+        <v>667</v>
+      </c>
+      <c r="SZ1" t="s">
+        <v>668</v>
+      </c>
+      <c r="TA1" t="s">
+        <v>669</v>
+      </c>
+      <c r="TB1" t="s">
+        <v>670</v>
+      </c>
+      <c r="TC1" t="s">
+        <v>671</v>
+      </c>
+      <c r="TD1" t="s">
+        <v>672</v>
+      </c>
+      <c r="TE1" t="s">
+        <v>673</v>
+      </c>
+      <c r="TF1" t="s">
+        <v>674</v>
+      </c>
+      <c r="TG1" t="s">
+        <v>675</v>
+      </c>
+      <c r="TH1" t="s">
+        <v>676</v>
+      </c>
+      <c r="TI1" t="s">
+        <v>677</v>
+      </c>
+      <c r="TJ1" t="s">
+        <v>678</v>
+      </c>
+      <c r="TK1" t="s">
+        <v>679</v>
+      </c>
+      <c r="TL1" t="s">
+        <v>680</v>
+      </c>
+      <c r="TM1" t="s">
+        <v>681</v>
+      </c>
+      <c r="TN1" t="s">
+        <v>682</v>
+      </c>
+      <c r="TO1" t="s">
+        <v>683</v>
+      </c>
+      <c r="TP1" t="s">
+        <v>684</v>
+      </c>
+      <c r="TQ1" t="s">
+        <v>685</v>
+      </c>
+      <c r="TR1" t="s">
+        <v>686</v>
+      </c>
+      <c r="TS1" t="s">
+        <v>687</v>
+      </c>
+      <c r="TT1" t="s">
+        <v>688</v>
+      </c>
+      <c r="TU1" t="s">
+        <v>689</v>
+      </c>
+      <c r="TV1" t="s">
+        <v>690</v>
+      </c>
+      <c r="TW1" t="s">
+        <v>691</v>
+      </c>
+      <c r="TX1" t="s">
+        <v>692</v>
+      </c>
+      <c r="TY1" t="s">
+        <v>693</v>
+      </c>
+      <c r="TZ1" t="s">
+        <v>694</v>
+      </c>
+      <c r="UA1" t="s">
+        <v>695</v>
+      </c>
+      <c r="UB1" t="s">
+        <v>696</v>
+      </c>
+      <c r="UC1" t="s">
+        <v>697</v>
+      </c>
+      <c r="UD1" t="s">
+        <v>698</v>
+      </c>
+      <c r="UE1" t="s">
+        <v>699</v>
+      </c>
+      <c r="UF1" t="s">
+        <v>700</v>
+      </c>
+      <c r="UG1" t="s">
+        <v>701</v>
+      </c>
+      <c r="UH1" t="s">
+        <v>702</v>
+      </c>
+      <c r="UI1" t="s">
+        <v>703</v>
+      </c>
+      <c r="UJ1" t="s">
+        <v>704</v>
+      </c>
+      <c r="UK1" t="s">
+        <v>705</v>
+      </c>
+      <c r="UL1" t="s">
+        <v>706</v>
+      </c>
+      <c r="UM1" t="s">
+        <v>707</v>
+      </c>
+      <c r="UN1" t="s">
+        <v>708</v>
+      </c>
+      <c r="UO1" t="s">
+        <v>709</v>
+      </c>
+      <c r="UP1" t="s">
+        <v>710</v>
+      </c>
+      <c r="UQ1" t="s">
+        <v>711</v>
+      </c>
+      <c r="UR1" t="s">
+        <v>712</v>
+      </c>
+      <c r="US1" t="s">
+        <v>713</v>
+      </c>
+      <c r="UT1" t="s">
+        <v>714</v>
+      </c>
+      <c r="UU1" t="s">
+        <v>715</v>
+      </c>
+      <c r="UV1" t="s">
+        <v>716</v>
+      </c>
+      <c r="UW1" t="s">
+        <v>717</v>
+      </c>
+      <c r="UX1" t="s">
+        <v>718</v>
+      </c>
+      <c r="UY1" t="s">
+        <v>719</v>
+      </c>
+      <c r="UZ1" t="s">
+        <v>720</v>
+      </c>
+      <c r="VA1" t="s">
+        <v>721</v>
+      </c>
+      <c r="VB1" t="s">
+        <v>722</v>
+      </c>
+      <c r="VC1" t="s">
+        <v>723</v>
+      </c>
+      <c r="VD1" t="s">
+        <v>724</v>
+      </c>
+      <c r="VE1" t="s">
+        <v>725</v>
+      </c>
+      <c r="VF1" t="s">
+        <v>726</v>
+      </c>
+      <c r="VG1" t="s">
+        <v>727</v>
+      </c>
+      <c r="VH1" t="s">
+        <v>728</v>
+      </c>
+      <c r="VI1" t="s">
+        <v>729</v>
+      </c>
+      <c r="VJ1" t="s">
+        <v>730</v>
+      </c>
+      <c r="VK1" t="s">
+        <v>731</v>
+      </c>
+      <c r="VL1" t="s">
+        <v>732</v>
+      </c>
+      <c r="VM1" t="s">
+        <v>733</v>
+      </c>
+      <c r="VN1" t="s">
+        <v>734</v>
+      </c>
+      <c r="VO1" t="s">
+        <v>735</v>
+      </c>
+      <c r="VP1" t="s">
+        <v>736</v>
+      </c>
+      <c r="VQ1" t="s">
+        <v>737</v>
+      </c>
+      <c r="VR1" t="s">
+        <v>738</v>
+      </c>
+      <c r="VS1" t="s">
+        <v>739</v>
+      </c>
+      <c r="VT1" t="s">
+        <v>740</v>
+      </c>
+      <c r="VU1" t="s">
+        <v>741</v>
+      </c>
+      <c r="VV1" t="s">
+        <v>742</v>
+      </c>
+      <c r="VW1" t="s">
+        <v>743</v>
+      </c>
+      <c r="VX1" t="s">
+        <v>744</v>
+      </c>
+      <c r="VY1" t="s">
+        <v>745</v>
+      </c>
+      <c r="VZ1" t="s">
+        <v>746</v>
+      </c>
+      <c r="WA1" t="s">
+        <v>747</v>
+      </c>
+      <c r="WB1" t="s">
+        <v>748</v>
+      </c>
+      <c r="WC1" t="s">
+        <v>749</v>
+      </c>
+      <c r="WD1" t="s">
+        <v>750</v>
+      </c>
+      <c r="WE1" t="s">
+        <v>751</v>
+      </c>
+      <c r="WF1" t="s">
+        <v>752</v>
+      </c>
+      <c r="WG1" t="s">
+        <v>753</v>
+      </c>
+      <c r="WH1" t="s">
+        <v>754</v>
+      </c>
+      <c r="WI1" t="s">
+        <v>755</v>
+      </c>
+      <c r="WJ1" t="s">
+        <v>756</v>
+      </c>
+      <c r="WK1" t="s">
+        <v>757</v>
+      </c>
+      <c r="WL1" t="s">
+        <v>758</v>
+      </c>
+      <c r="WM1" t="s">
+        <v>759</v>
+      </c>
+      <c r="WN1" t="s">
+        <v>760</v>
+      </c>
+      <c r="WO1" t="s">
+        <v>761</v>
+      </c>
+      <c r="WP1" t="s">
+        <v>762</v>
+      </c>
+      <c r="WQ1" t="s">
+        <v>763</v>
+      </c>
+      <c r="WR1" t="s">
+        <v>764</v>
+      </c>
+      <c r="WS1" t="s">
+        <v>765</v>
+      </c>
+      <c r="WT1" t="s">
+        <v>766</v>
+      </c>
+      <c r="WU1" t="s">
+        <v>767</v>
+      </c>
+      <c r="WV1" t="s">
+        <v>768</v>
+      </c>
+      <c r="WW1" t="s">
+        <v>769</v>
+      </c>
+      <c r="WX1" t="s">
+        <v>770</v>
+      </c>
+      <c r="WY1" t="s">
+        <v>771</v>
+      </c>
+      <c r="WZ1" t="s">
+        <v>772</v>
+      </c>
+      <c r="XA1" t="s">
+        <v>773</v>
+      </c>
+      <c r="XB1" t="s">
+        <v>774</v>
+      </c>
+      <c r="XC1" t="s">
+        <v>775</v>
+      </c>
+      <c r="XD1" t="s">
+        <v>776</v>
+      </c>
+      <c r="XE1" t="s">
+        <v>777</v>
+      </c>
+      <c r="XF1" t="s">
+        <v>778</v>
+      </c>
+      <c r="XG1" t="s">
+        <v>779</v>
+      </c>
+      <c r="XH1" t="s">
+        <v>780</v>
+      </c>
+      <c r="XI1" t="s">
+        <v>781</v>
+      </c>
+      <c r="XJ1" t="s">
+        <v>782</v>
+      </c>
+      <c r="XK1" t="s">
+        <v>783</v>
+      </c>
+      <c r="XL1" t="s">
+        <v>784</v>
+      </c>
+      <c r="XM1" t="s">
+        <v>785</v>
+      </c>
+      <c r="XN1" t="s">
+        <v>786</v>
+      </c>
+      <c r="XO1" t="s">
+        <v>787</v>
+      </c>
+      <c r="XP1" t="s">
+        <v>788</v>
+      </c>
+      <c r="XQ1" t="s">
+        <v>789</v>
+      </c>
+      <c r="XR1" t="s">
+        <v>790</v>
+      </c>
+      <c r="XS1" t="s">
+        <v>791</v>
+      </c>
+      <c r="XT1" t="s">
+        <v>792</v>
+      </c>
+      <c r="XU1" t="s">
+        <v>793</v>
+      </c>
+      <c r="XV1" t="s">
+        <v>794</v>
+      </c>
+      <c r="XW1" t="s">
+        <v>795</v>
+      </c>
+      <c r="XX1" t="s">
+        <v>796</v>
+      </c>
+      <c r="XY1" t="s">
+        <v>797</v>
+      </c>
+      <c r="XZ1" t="s">
+        <v>798</v>
+      </c>
+      <c r="YA1" t="s">
+        <v>799</v>
+      </c>
+      <c r="YB1" t="s">
+        <v>800</v>
+      </c>
+      <c r="YC1" t="s">
+        <v>801</v>
+      </c>
+      <c r="YD1" t="s">
+        <v>802</v>
+      </c>
+      <c r="YE1" t="s">
+        <v>803</v>
+      </c>
+      <c r="YF1" t="s">
+        <v>804</v>
+      </c>
+      <c r="YG1" t="s">
+        <v>805</v>
+      </c>
+      <c r="YH1" t="s">
+        <v>806</v>
+      </c>
+      <c r="YI1" t="s">
+        <v>807</v>
+      </c>
+      <c r="YJ1" t="s">
+        <v>808</v>
+      </c>
+      <c r="YK1" t="s">
+        <v>809</v>
+      </c>
+      <c r="YL1" t="s">
+        <v>810</v>
+      </c>
+      <c r="YM1" t="s">
+        <v>811</v>
+      </c>
+      <c r="YN1" t="s">
+        <v>812</v>
+      </c>
+      <c r="YO1" t="s">
+        <v>813</v>
+      </c>
+      <c r="YP1" t="s">
+        <v>814</v>
+      </c>
+      <c r="YQ1" t="s">
+        <v>815</v>
+      </c>
+      <c r="YR1" t="s">
+        <v>816</v>
+      </c>
+      <c r="YS1" t="s">
+        <v>817</v>
+      </c>
+      <c r="YT1" t="s">
+        <v>818</v>
+      </c>
+      <c r="YU1" t="s">
+        <v>819</v>
+      </c>
+      <c r="YV1" t="s">
+        <v>820</v>
+      </c>
+      <c r="YW1" t="s">
+        <v>821</v>
+      </c>
+      <c r="YX1" t="s">
+        <v>822</v>
+      </c>
+      <c r="YY1" t="s">
+        <v>823</v>
+      </c>
+      <c r="YZ1" t="s">
+        <v>824</v>
+      </c>
+      <c r="ZA1" t="s">
+        <v>825</v>
+      </c>
+      <c r="ZB1" t="s">
+        <v>826</v>
+      </c>
+      <c r="ZC1" t="s">
+        <v>827</v>
+      </c>
+      <c r="ZD1" t="s">
+        <v>828</v>
+      </c>
+      <c r="ZE1" t="s">
+        <v>829</v>
+      </c>
+      <c r="ZF1" t="s">
+        <v>830</v>
+      </c>
+      <c r="ZG1" t="s">
+        <v>831</v>
+      </c>
+      <c r="ZH1" t="s">
+        <v>832</v>
+      </c>
+      <c r="ZI1" t="s">
+        <v>833</v>
+      </c>
+      <c r="ZJ1" t="s">
+        <v>834</v>
+      </c>
+      <c r="ZK1" t="s">
+        <v>835</v>
+      </c>
+      <c r="ZL1" t="s">
+        <v>836</v>
+      </c>
+      <c r="ZM1" t="s">
+        <v>837</v>
+      </c>
+      <c r="ZN1" t="s">
+        <v>838</v>
+      </c>
+      <c r="ZO1" t="s">
+        <v>839</v>
+      </c>
+      <c r="ZP1" t="s">
+        <v>840</v>
+      </c>
+      <c r="ZQ1" t="s">
+        <v>841</v>
+      </c>
+      <c r="ZR1" t="s">
+        <v>842</v>
+      </c>
+      <c r="ZS1" t="s">
+        <v>843</v>
+      </c>
+      <c r="ZT1" t="s">
+        <v>844</v>
+      </c>
+      <c r="ZU1" t="s">
+        <v>845</v>
+      </c>
+      <c r="ZV1" t="s">
+        <v>846</v>
+      </c>
+      <c r="ZW1" t="s">
+        <v>847</v>
+      </c>
+      <c r="ZX1" t="s">
+        <v>848</v>
+      </c>
+      <c r="ZY1" t="s">
+        <v>849</v>
+      </c>
+      <c r="ZZ1" t="s">
+        <v>850</v>
+      </c>
+      <c r="AAA1" t="s">
+        <v>851</v>
+      </c>
+      <c r="AAB1" t="s">
+        <v>852</v>
+      </c>
+      <c r="AAC1" t="s">
+        <v>853</v>
+      </c>
+      <c r="AAD1" t="s">
+        <v>854</v>
+      </c>
+      <c r="AAE1" t="s">
+        <v>855</v>
+      </c>
+      <c r="AAF1" t="s">
+        <v>856</v>
+      </c>
+      <c r="AAG1" t="s">
+        <v>857</v>
+      </c>
+      <c r="AAH1" t="s">
+        <v>858</v>
+      </c>
+      <c r="AAI1" t="s">
+        <v>859</v>
+      </c>
+      <c r="AAJ1" t="s">
+        <v>860</v>
+      </c>
+      <c r="AAK1" t="s">
+        <v>861</v>
+      </c>
+      <c r="AAL1" t="s">
+        <v>862</v>
+      </c>
+      <c r="AAM1" t="s">
+        <v>863</v>
+      </c>
+      <c r="AAN1" t="s">
+        <v>864</v>
+      </c>
+      <c r="AAO1" t="s">
+        <v>865</v>
+      </c>
+      <c r="AAP1" t="s">
+        <v>866</v>
+      </c>
+      <c r="AAQ1" t="s">
+        <v>867</v>
+      </c>
+      <c r="AAR1" t="s">
+        <v>868</v>
+      </c>
+      <c r="AAS1" t="s">
+        <v>869</v>
+      </c>
+      <c r="AAT1" t="s">
+        <v>870</v>
+      </c>
+      <c r="AAU1" t="s">
+        <v>871</v>
+      </c>
+      <c r="AAV1" t="s">
+        <v>872</v>
+      </c>
+      <c r="AAW1" t="s">
+        <v>873</v>
+      </c>
+      <c r="AAX1" t="s">
+        <v>874</v>
+      </c>
+      <c r="AAY1" t="s">
+        <v>875</v>
+      </c>
+      <c r="AAZ1" t="s">
+        <v>876</v>
+      </c>
+      <c r="ABA1" t="s">
+        <v>877</v>
+      </c>
+      <c r="ABB1" t="s">
+        <v>878</v>
+      </c>
+      <c r="ABC1" t="s">
+        <v>879</v>
+      </c>
+      <c r="ABD1" t="s">
+        <v>880</v>
+      </c>
+      <c r="ABE1" t="s">
+        <v>881</v>
+      </c>
+      <c r="ABF1" t="s">
+        <v>882</v>
+      </c>
+      <c r="ABG1" t="s">
+        <v>883</v>
+      </c>
+      <c r="ABH1" t="s">
+        <v>884</v>
+      </c>
+      <c r="ABI1" t="s">
+        <v>885</v>
+      </c>
+      <c r="ABJ1" t="s">
+        <v>886</v>
+      </c>
+      <c r="ABK1" t="s">
+        <v>887</v>
+      </c>
+      <c r="ABL1" t="s">
+        <v>888</v>
+      </c>
+      <c r="ABM1" t="s">
+        <v>889</v>
+      </c>
+      <c r="ABN1" t="s">
+        <v>890</v>
+      </c>
+      <c r="ABO1" t="s">
+        <v>891</v>
+      </c>
+      <c r="ABP1" t="s">
+        <v>892</v>
+      </c>
+      <c r="ABQ1" t="s">
+        <v>893</v>
+      </c>
+      <c r="ABR1" t="s">
+        <v>894</v>
+      </c>
+      <c r="ABS1" t="s">
+        <v>895</v>
+      </c>
+      <c r="ABT1" t="s">
+        <v>896</v>
+      </c>
+      <c r="ABU1" t="s">
+        <v>897</v>
+      </c>
+      <c r="ABV1" t="s">
+        <v>898</v>
+      </c>
+      <c r="ABW1" t="s">
+        <v>899</v>
+      </c>
+      <c r="ABX1" t="s">
+        <v>900</v>
+      </c>
+      <c r="ABY1" t="s">
+        <v>901</v>
+      </c>
+      <c r="ABZ1" t="s">
+        <v>902</v>
+      </c>
+      <c r="ACA1" t="s">
+        <v>903</v>
+      </c>
+      <c r="ACB1" t="s">
+        <v>904</v>
+      </c>
+      <c r="ACC1" t="s">
+        <v>905</v>
+      </c>
+      <c r="ACD1" t="s">
+        <v>906</v>
+      </c>
+      <c r="ACE1" t="s">
+        <v>907</v>
+      </c>
+      <c r="ACF1" t="s">
+        <v>908</v>
+      </c>
+      <c r="ACG1" t="s">
+        <v>909</v>
+      </c>
+      <c r="ACH1" t="s">
+        <v>910</v>
+      </c>
+      <c r="ACI1" t="s">
+        <v>911</v>
+      </c>
+      <c r="ACJ1" t="s">
+        <v>912</v>
+      </c>
+      <c r="ACK1" t="s">
+        <v>913</v>
+      </c>
+      <c r="ACL1" t="s">
+        <v>914</v>
+      </c>
+      <c r="ACM1" t="s">
+        <v>915</v>
+      </c>
+      <c r="ACN1" t="s">
+        <v>916</v>
+      </c>
+      <c r="ACO1" t="s">
+        <v>917</v>
+      </c>
+      <c r="ACP1" t="s">
+        <v>918</v>
+      </c>
+      <c r="ACQ1" t="s">
+        <v>919</v>
+      </c>
+      <c r="ACR1" t="s">
+        <v>920</v>
+      </c>
+      <c r="ACS1" t="s">
+        <v>921</v>
+      </c>
+      <c r="ACT1" t="s">
+        <v>922</v>
+      </c>
+      <c r="ACU1" t="s">
+        <v>923</v>
+      </c>
+      <c r="ACV1" t="s">
+        <v>924</v>
+      </c>
+      <c r="ACW1" t="s">
+        <v>925</v>
+      </c>
+      <c r="ACX1" t="s">
+        <v>926</v>
+      </c>
+      <c r="ACY1" t="s">
+        <v>927</v>
+      </c>
+      <c r="ACZ1" t="s">
+        <v>928</v>
+      </c>
+      <c r="ADA1" t="s">
+        <v>929</v>
+      </c>
+      <c r="ADB1" t="s">
+        <v>930</v>
+      </c>
+      <c r="ADC1" t="s">
+        <v>931</v>
+      </c>
+      <c r="ADD1" t="s">
+        <v>932</v>
+      </c>
+      <c r="ADE1" t="s">
+        <v>933</v>
+      </c>
+      <c r="ADF1" t="s">
+        <v>934</v>
+      </c>
+      <c r="ADG1" t="s">
+        <v>935</v>
+      </c>
+      <c r="ADH1" t="s">
+        <v>936</v>
+      </c>
+      <c r="ADI1" t="s">
+        <v>937</v>
+      </c>
+      <c r="ADJ1" t="s">
+        <v>938</v>
+      </c>
+      <c r="ADK1" t="s">
+        <v>939</v>
+      </c>
+      <c r="ADL1" t="s">
+        <v>940</v>
+      </c>
+      <c r="ADM1" t="s">
+        <v>941</v>
+      </c>
+      <c r="ADN1" t="s">
+        <v>942</v>
+      </c>
+      <c r="ADO1" t="s">
+        <v>943</v>
+      </c>
+      <c r="ADP1" t="s">
+        <v>944</v>
+      </c>
+      <c r="ADQ1" t="s">
+        <v>945</v>
+      </c>
+      <c r="ADR1" t="s">
+        <v>946</v>
+      </c>
+      <c r="ADS1" t="s">
+        <v>947</v>
+      </c>
+      <c r="ADT1" t="s">
+        <v>948</v>
+      </c>
+      <c r="ADU1" t="s">
+        <v>949</v>
+      </c>
+      <c r="ADV1" t="s">
+        <v>950</v>
+      </c>
+      <c r="ADW1" t="s">
+        <v>951</v>
+      </c>
+      <c r="ADX1" t="s">
+        <v>952</v>
+      </c>
+      <c r="ADY1" t="s">
+        <v>953</v>
+      </c>
+      <c r="ADZ1" t="s">
+        <v>954</v>
+      </c>
+      <c r="AEA1" t="s">
+        <v>955</v>
+      </c>
+      <c r="AEB1" t="s">
+        <v>956</v>
+      </c>
+      <c r="AEC1" t="s">
+        <v>957</v>
+      </c>
+      <c r="AED1" t="s">
+        <v>958</v>
+      </c>
+      <c r="AEE1" t="s">
+        <v>959</v>
+      </c>
+      <c r="AEF1" t="s">
+        <v>960</v>
+      </c>
+      <c r="AEG1" t="s">
+        <v>961</v>
+      </c>
+      <c r="AEH1" t="s">
+        <v>962</v>
+      </c>
+      <c r="AEI1" t="s">
+        <v>963</v>
+      </c>
+      <c r="AEJ1" t="s">
+        <v>964</v>
+      </c>
+      <c r="AEK1" t="s">
+        <v>965</v>
+      </c>
+      <c r="AEL1" t="s">
+        <v>966</v>
+      </c>
+      <c r="AEM1" t="s">
+        <v>967</v>
+      </c>
+      <c r="AEN1" t="s">
+        <v>968</v>
+      </c>
+      <c r="AEO1" t="s">
+        <v>969</v>
+      </c>
+      <c r="AEP1" t="s">
+        <v>970</v>
+      </c>
+      <c r="AEQ1" t="s">
+        <v>971</v>
+      </c>
+      <c r="AER1" t="s">
+        <v>972</v>
+      </c>
+      <c r="AES1" t="s">
+        <v>973</v>
+      </c>
+      <c r="AET1" t="s">
+        <v>974</v>
+      </c>
+      <c r="AEU1" t="s">
+        <v>975</v>
+      </c>
+      <c r="AEV1" t="s">
+        <v>976</v>
+      </c>
+      <c r="AEW1" t="s">
+        <v>977</v>
+      </c>
+      <c r="AEX1" t="s">
+        <v>978</v>
+      </c>
+      <c r="AEY1" t="s">
+        <v>979</v>
+      </c>
+      <c r="AEZ1" t="s">
+        <v>980</v>
+      </c>
+      <c r="AFA1" t="s">
+        <v>981</v>
+      </c>
+      <c r="AFB1" t="s">
+        <v>982</v>
+      </c>
+      <c r="AFC1" t="s">
+        <v>983</v>
+      </c>
+      <c r="AFD1" t="s">
+        <v>984</v>
+      </c>
+      <c r="AFE1" t="s">
+        <v>985</v>
+      </c>
+      <c r="AFF1" t="s">
+        <v>986</v>
+      </c>
+      <c r="AFG1" t="s">
+        <v>987</v>
+      </c>
+      <c r="AFH1" t="s">
+        <v>988</v>
+      </c>
+      <c r="AFI1" t="s">
+        <v>989</v>
+      </c>
+      <c r="AFJ1" t="s">
+        <v>990</v>
+      </c>
+      <c r="AFK1" t="s">
+        <v>991</v>
+      </c>
+      <c r="AFL1" t="s">
+        <v>992</v>
+      </c>
+      <c r="AFM1" t="s">
+        <v>993</v>
+      </c>
+      <c r="AFN1" t="s">
+        <v>994</v>
+      </c>
+      <c r="AFO1" t="s">
+        <v>995</v>
+      </c>
+      <c r="AFP1" t="s">
+        <v>996</v>
+      </c>
+      <c r="AFQ1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AFR1" t="s">
+        <v>998</v>
+      </c>
+      <c r="AFS1" t="s">
+        <v>999</v>
+      </c>
+      <c r="AFT1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AFU1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AFV1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AFW1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AFX1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AFY1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AFZ1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AGA1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AGB1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AGC1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AGD1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AGE1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AGF1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AGG1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AGH1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AGI1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AGJ1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AGK1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AGL1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AGM1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AGN1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AGO1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AGP1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AGQ1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AGR1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AGS1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AGT1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AGU1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AGV1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AGW1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AGX1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AGY1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AGZ1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AHA1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AHB1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AHC1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AHD1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AHE1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AHF1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AHG1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AHH1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AHI1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AHJ1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AHK1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AHL1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AHM1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AHN1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AHO1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AHP1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AHQ1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AHR1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AHS1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AHT1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AHU1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AHV1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AHW1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AHX1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AHY1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AHZ1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AIA1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AIB1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AIC1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AID1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AIE1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AIF1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AIG1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AIH1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AII1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AIJ1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AIK1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AIL1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AIM1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AIN1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AIO1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AIP1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AIQ1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AIR1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AIS1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AIT1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AIU1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AIV1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AIW1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AIX1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AIY1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AIZ1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AJA1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AJB1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AJC1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AJD1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AJE1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AJF1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AJG1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AJH1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AJI1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AJJ1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AJK1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AJL1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AJM1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AJN1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AJO1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AJP1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AJQ1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AJR1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AJS1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AJT1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AJU1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AJV1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AJW1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AJX1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AJY1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AJZ1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AKA1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AKB1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AKC1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AKD1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AKE1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AKF1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AKG1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AKH1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AKI1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AKJ1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AKK1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AKL1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AKM1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AKN1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AKO1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AKP1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AKQ1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AKR1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AKS1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AKT1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AKU1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AKV1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AKW1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AKX1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AKY1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AKZ1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="ALA1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="ALB1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="ALC1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="ALD1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="ALE1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="ALF1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="ALG1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="ALH1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="ALI1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="ALJ1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="ALK1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="ALL1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="ALM1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="ALN1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="ALO1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="ALP1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="ALQ1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="ALR1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="ALS1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="ALT1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="ALU1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="ALV1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="ALW1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="ALX1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="ALY1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="ALZ1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AMA1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AMB1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AMC1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AMD1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AME1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AMF1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AMG1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AMH1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AMI1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AMJ1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AMK1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AML1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AMM1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AMN1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AMO1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AMP1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AMQ1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AMR1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AMS1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="AMT1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AMU1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AMV1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AMW1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AMX1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AMY1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AMZ1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="ANA1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="ANB1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="ANC1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AND1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="ANE1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="ANF1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="ANG1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="ANH1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="ANI1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="ANJ1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="ANK1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="ANL1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="ANM1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="ANN1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="ANO1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="ANP1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="ANQ1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="ANR1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="ANS1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="ANT1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="ANU1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="ANV1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="ANW1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="ANX1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="ANY1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="ANZ1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AOA1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AOB1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AOC1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AOD1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AOE1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AOF1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AOG1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AOH1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AOI1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AOJ1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AOK1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AOL1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AOM1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AON1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AOO1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AOP1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AOQ1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AOR1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AOS1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="AOT1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AOU1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AOV1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AOW1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AOX1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AOY1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AOZ1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="APA1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="APB1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="APC1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="APD1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="APE1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="APF1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="APG1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="APH1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="API1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="APJ1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="APK1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="APL1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="APM1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="APN1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="APO1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="APP1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="APQ1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="APR1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="APS1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="APT1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="APU1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="APV1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="APW1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="APX1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="APY1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="APZ1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AQA1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AQB1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AQC1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AQD1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AQE1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AQF1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AQG1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AQH1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AQI1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AQJ1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AQK1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AQL1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AQM1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AQN1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AQO1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AQP1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AQQ1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="AQR1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AQS1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="AQT1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AQU1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AQV1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AQW1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AQX1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AQY1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="AQZ1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="ARA1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="ARB1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="ARC1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="ARD1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="ARE1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="ARF1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="ARG1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="ARH1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="ARI1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="ARJ1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="ARK1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="ARL1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="ARM1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="ARN1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="ARO1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="ARP1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="ARQ1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="ARR1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="ARS1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="ART1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="ARU1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="ARV1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="ARW1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="ARX1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="ARY1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="ARZ1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="ASA1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="ASB1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="ASC1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="ASD1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="ASE1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="ASF1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="ASG1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="ASH1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="ASI1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="ASJ1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="ASK1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="ASL1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="ASM1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="ASN1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="ASO1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="ASP1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="ASQ1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="ASR1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="ASS1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AST1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="ASU1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="ASV1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="ASW1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="ASX1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="ASY1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="ASZ1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="ATA1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="ATB1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="ATC1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="ATD1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="ATE1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="ATF1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="ATG1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="ATH1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="ATI1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="ATJ1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="ATK1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="ATL1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="ATM1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="ATN1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="ATO1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="ATP1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="ATQ1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="ATR1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="ATS1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="ATT1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="ATU1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="ATV1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="ATW1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="ATX1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="ATY1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="ATZ1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AUA1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AUB1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AUC1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AUD1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AUE1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AUF1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AUG1" t="s">
         <v>1377</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="AUH1" t="s">
         <v>1378</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>75</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>101</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>127</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>130</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>144</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>147</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EX1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>153</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FD1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FE1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FF1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FG1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FH1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FI1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FJ1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FK1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FL1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FM1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FN1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FO1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FP1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FQ1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FR1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FS1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FT1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FU1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FV1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FW1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FX1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FY1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FZ1" t="s">
-        <v>179</v>
-      </c>
-      <c r="GA1" t="s">
-        <v>180</v>
-      </c>
-      <c r="GB1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GC1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GD1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GE1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GF1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GG1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GH1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GI1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GJ1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GK1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GL1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GM1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GN1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GO1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GP1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GQ1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GR1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GS1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GT1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GV1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GW1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GX1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GY1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GZ1" t="s">
-        <v>205</v>
-      </c>
-      <c r="HA1" t="s">
-        <v>206</v>
-      </c>
-      <c r="HB1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HC1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HD1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HE1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HF1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HG1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HH1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HI1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HJ1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HK1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HL1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HM1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HN1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HO1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HP1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HQ1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HR1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HS1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HT1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HU1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HV1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HW1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HX1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HY1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HZ1" t="s">
-        <v>231</v>
-      </c>
-      <c r="IA1" t="s">
-        <v>232</v>
-      </c>
-      <c r="IB1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IC1" t="s">
-        <v>234</v>
-      </c>
-      <c r="ID1" t="s">
-        <v>235</v>
-      </c>
-      <c r="IE1" t="s">
-        <v>236</v>
-      </c>
-      <c r="IF1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IG1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IH1" t="s">
-        <v>239</v>
-      </c>
-      <c r="II1" t="s">
-        <v>240</v>
-      </c>
-      <c r="IJ1" t="s">
-        <v>241</v>
-      </c>
-      <c r="IK1" t="s">
-        <v>242</v>
-      </c>
-      <c r="IL1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IM1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IN1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IO1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IP1" t="s">
-        <v>247</v>
-      </c>
-      <c r="IQ1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IR1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IS1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IT1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IU1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IV1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IW1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IX1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IY1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IZ1" t="s">
-        <v>257</v>
-      </c>
-      <c r="JA1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JB1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JC1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JD1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JE1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JF1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JG1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JH1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JI1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JJ1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JK1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JL1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JM1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JN1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JO1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JP1" t="s">
-        <v>273</v>
-      </c>
-      <c r="JQ1" t="s">
-        <v>274</v>
-      </c>
-      <c r="JR1" t="s">
-        <v>275</v>
-      </c>
-      <c r="JS1" t="s">
-        <v>276</v>
-      </c>
-      <c r="JT1" t="s">
-        <v>277</v>
-      </c>
-      <c r="JU1" t="s">
-        <v>278</v>
-      </c>
-      <c r="JV1" t="s">
-        <v>279</v>
-      </c>
-      <c r="JW1" t="s">
-        <v>280</v>
-      </c>
-      <c r="JX1" t="s">
-        <v>281</v>
-      </c>
-      <c r="JY1" t="s">
-        <v>282</v>
-      </c>
-      <c r="JZ1" t="s">
-        <v>283</v>
-      </c>
-      <c r="KA1" t="s">
-        <v>284</v>
-      </c>
-      <c r="KB1" t="s">
-        <v>285</v>
-      </c>
-      <c r="KC1" t="s">
-        <v>286</v>
-      </c>
-      <c r="KD1" t="s">
-        <v>287</v>
-      </c>
-      <c r="KE1" t="s">
-        <v>288</v>
-      </c>
-      <c r="KF1" t="s">
-        <v>289</v>
-      </c>
-      <c r="KG1" t="s">
-        <v>290</v>
-      </c>
-      <c r="KH1" t="s">
-        <v>291</v>
-      </c>
-      <c r="KI1" t="s">
-        <v>292</v>
-      </c>
-      <c r="KJ1" t="s">
-        <v>293</v>
-      </c>
-      <c r="KK1" t="s">
-        <v>294</v>
-      </c>
-      <c r="KL1" t="s">
-        <v>295</v>
-      </c>
-      <c r="KM1" t="s">
-        <v>296</v>
-      </c>
-      <c r="KN1" t="s">
-        <v>297</v>
-      </c>
-      <c r="KO1" t="s">
-        <v>298</v>
-      </c>
-      <c r="KP1" t="s">
-        <v>299</v>
-      </c>
-      <c r="KQ1" t="s">
-        <v>300</v>
-      </c>
-      <c r="KR1" t="s">
-        <v>301</v>
-      </c>
-      <c r="KS1" t="s">
-        <v>302</v>
-      </c>
-      <c r="KT1" t="s">
-        <v>303</v>
-      </c>
-      <c r="KU1" t="s">
-        <v>304</v>
-      </c>
-      <c r="KV1" t="s">
-        <v>305</v>
-      </c>
-      <c r="KW1" t="s">
-        <v>306</v>
-      </c>
-      <c r="KX1" t="s">
-        <v>307</v>
-      </c>
-      <c r="KY1" t="s">
-        <v>308</v>
-      </c>
-      <c r="KZ1" t="s">
-        <v>309</v>
-      </c>
-      <c r="LA1" t="s">
-        <v>310</v>
-      </c>
-      <c r="LB1" t="s">
-        <v>311</v>
-      </c>
-      <c r="LC1" t="s">
-        <v>312</v>
-      </c>
-      <c r="LD1" t="s">
-        <v>313</v>
-      </c>
-      <c r="LE1" t="s">
-        <v>314</v>
-      </c>
-      <c r="LF1" t="s">
-        <v>315</v>
-      </c>
-      <c r="LG1" t="s">
-        <v>316</v>
-      </c>
-      <c r="LH1" t="s">
-        <v>317</v>
-      </c>
-      <c r="LI1" t="s">
-        <v>318</v>
-      </c>
-      <c r="LJ1" t="s">
-        <v>319</v>
-      </c>
-      <c r="LK1" t="s">
-        <v>320</v>
-      </c>
-      <c r="LL1" t="s">
-        <v>321</v>
-      </c>
-      <c r="LM1" t="s">
-        <v>322</v>
-      </c>
-      <c r="LN1" t="s">
-        <v>323</v>
-      </c>
-      <c r="LO1" t="s">
-        <v>324</v>
-      </c>
-      <c r="LP1" t="s">
-        <v>325</v>
-      </c>
-      <c r="LQ1" t="s">
-        <v>326</v>
-      </c>
-      <c r="LR1" t="s">
-        <v>327</v>
-      </c>
-      <c r="LS1" t="s">
-        <v>328</v>
-      </c>
-      <c r="LT1" t="s">
-        <v>329</v>
-      </c>
-      <c r="LU1" t="s">
-        <v>330</v>
-      </c>
-      <c r="LV1" t="s">
-        <v>331</v>
-      </c>
-      <c r="LW1" t="s">
-        <v>332</v>
-      </c>
-      <c r="LX1" t="s">
-        <v>333</v>
-      </c>
-      <c r="LY1" t="s">
-        <v>334</v>
-      </c>
-      <c r="LZ1" t="s">
-        <v>335</v>
-      </c>
-      <c r="MA1" t="s">
-        <v>336</v>
-      </c>
-      <c r="MB1" t="s">
-        <v>337</v>
-      </c>
-      <c r="MC1" t="s">
-        <v>338</v>
-      </c>
-      <c r="MD1" t="s">
-        <v>339</v>
-      </c>
-      <c r="ME1" t="s">
-        <v>340</v>
-      </c>
-      <c r="MF1" t="s">
-        <v>341</v>
-      </c>
-      <c r="MG1" t="s">
-        <v>342</v>
-      </c>
-      <c r="MH1" t="s">
-        <v>343</v>
-      </c>
-      <c r="MI1" t="s">
-        <v>344</v>
-      </c>
-      <c r="MJ1" t="s">
-        <v>345</v>
-      </c>
-      <c r="MK1" t="s">
-        <v>346</v>
-      </c>
-      <c r="ML1" t="s">
-        <v>347</v>
-      </c>
-      <c r="MM1" t="s">
-        <v>348</v>
-      </c>
-      <c r="MN1" t="s">
-        <v>349</v>
-      </c>
-      <c r="MO1" t="s">
-        <v>350</v>
-      </c>
-      <c r="MP1" t="s">
-        <v>351</v>
-      </c>
-      <c r="MQ1" t="s">
-        <v>352</v>
-      </c>
-      <c r="MR1" t="s">
-        <v>353</v>
-      </c>
-      <c r="MS1" t="s">
-        <v>354</v>
-      </c>
-      <c r="MT1" t="s">
-        <v>355</v>
-      </c>
-      <c r="MU1" t="s">
-        <v>356</v>
-      </c>
-      <c r="MV1" t="s">
-        <v>357</v>
-      </c>
-      <c r="MW1" t="s">
-        <v>358</v>
-      </c>
-      <c r="MX1" t="s">
-        <v>359</v>
-      </c>
-      <c r="MY1" t="s">
-        <v>360</v>
-      </c>
-      <c r="MZ1" t="s">
-        <v>361</v>
-      </c>
-      <c r="NA1" t="s">
-        <v>362</v>
-      </c>
-      <c r="NB1" t="s">
-        <v>363</v>
-      </c>
-      <c r="NC1" t="s">
-        <v>364</v>
-      </c>
-      <c r="ND1" t="s">
-        <v>365</v>
-      </c>
-      <c r="NE1" t="s">
-        <v>366</v>
-      </c>
-      <c r="NF1" t="s">
-        <v>367</v>
-      </c>
-      <c r="NG1" t="s">
-        <v>368</v>
-      </c>
-      <c r="NH1" t="s">
-        <v>369</v>
-      </c>
-      <c r="NI1" t="s">
-        <v>370</v>
-      </c>
-      <c r="NJ1" t="s">
-        <v>371</v>
-      </c>
-      <c r="NK1" t="s">
-        <v>372</v>
-      </c>
-      <c r="NL1" t="s">
-        <v>373</v>
-      </c>
-      <c r="NM1" t="s">
-        <v>374</v>
-      </c>
-      <c r="NN1" t="s">
-        <v>375</v>
-      </c>
-      <c r="NO1" t="s">
-        <v>376</v>
-      </c>
-      <c r="NP1" t="s">
-        <v>377</v>
-      </c>
-      <c r="NQ1" t="s">
-        <v>378</v>
-      </c>
-      <c r="NR1" t="s">
-        <v>379</v>
-      </c>
-      <c r="NS1" t="s">
-        <v>380</v>
-      </c>
-      <c r="NT1" t="s">
-        <v>381</v>
-      </c>
-      <c r="NU1" t="s">
-        <v>382</v>
-      </c>
-      <c r="NV1" t="s">
-        <v>383</v>
-      </c>
-      <c r="NW1" t="s">
-        <v>384</v>
-      </c>
-      <c r="NX1" t="s">
-        <v>385</v>
-      </c>
-      <c r="NY1" t="s">
-        <v>386</v>
-      </c>
-      <c r="NZ1" t="s">
-        <v>387</v>
-      </c>
-      <c r="OA1" t="s">
-        <v>388</v>
-      </c>
-      <c r="OB1" t="s">
-        <v>389</v>
-      </c>
-      <c r="OC1" t="s">
-        <v>390</v>
-      </c>
-      <c r="OD1" t="s">
-        <v>391</v>
-      </c>
-      <c r="OE1" t="s">
-        <v>392</v>
-      </c>
-      <c r="OF1" t="s">
-        <v>393</v>
-      </c>
-      <c r="OG1" t="s">
-        <v>394</v>
-      </c>
-      <c r="OH1" t="s">
-        <v>395</v>
-      </c>
-      <c r="OI1" t="s">
-        <v>396</v>
-      </c>
-      <c r="OJ1" t="s">
-        <v>397</v>
-      </c>
-      <c r="OK1" t="s">
-        <v>398</v>
-      </c>
-      <c r="OL1" t="s">
-        <v>399</v>
-      </c>
-      <c r="OM1" t="s">
-        <v>400</v>
-      </c>
-      <c r="ON1" t="s">
-        <v>401</v>
-      </c>
-      <c r="OO1" t="s">
-        <v>402</v>
-      </c>
-      <c r="OP1" t="s">
-        <v>403</v>
-      </c>
-      <c r="OQ1" t="s">
-        <v>404</v>
-      </c>
-      <c r="OR1" t="s">
-        <v>405</v>
-      </c>
-      <c r="OS1" t="s">
-        <v>406</v>
-      </c>
-      <c r="OT1" t="s">
-        <v>407</v>
-      </c>
-      <c r="OU1" t="s">
-        <v>408</v>
-      </c>
-      <c r="OV1" t="s">
-        <v>409</v>
-      </c>
-      <c r="OW1" t="s">
-        <v>410</v>
-      </c>
-      <c r="OX1" t="s">
-        <v>411</v>
-      </c>
-      <c r="OY1" t="s">
-        <v>412</v>
-      </c>
-      <c r="OZ1" t="s">
-        <v>413</v>
-      </c>
-      <c r="PA1" t="s">
-        <v>414</v>
-      </c>
-      <c r="PB1" t="s">
-        <v>415</v>
-      </c>
-      <c r="PC1" t="s">
-        <v>416</v>
-      </c>
-      <c r="PD1" t="s">
-        <v>417</v>
-      </c>
-      <c r="PE1" t="s">
-        <v>418</v>
-      </c>
-      <c r="PF1" t="s">
-        <v>419</v>
-      </c>
-      <c r="PG1" t="s">
-        <v>420</v>
-      </c>
-      <c r="PH1" t="s">
-        <v>421</v>
-      </c>
-      <c r="PI1" t="s">
-        <v>422</v>
-      </c>
-      <c r="PJ1" t="s">
-        <v>423</v>
-      </c>
-      <c r="PK1" t="s">
-        <v>424</v>
-      </c>
-      <c r="PL1" t="s">
-        <v>425</v>
-      </c>
-      <c r="PM1" t="s">
-        <v>426</v>
-      </c>
-      <c r="PN1" t="s">
-        <v>427</v>
-      </c>
-      <c r="PO1" t="s">
-        <v>428</v>
-      </c>
-      <c r="PP1" t="s">
-        <v>429</v>
-      </c>
-      <c r="PQ1" t="s">
-        <v>430</v>
-      </c>
-      <c r="PR1" t="s">
-        <v>431</v>
-      </c>
-      <c r="PS1" t="s">
-        <v>432</v>
-      </c>
-      <c r="PT1" t="s">
-        <v>433</v>
-      </c>
-      <c r="PU1" t="s">
-        <v>434</v>
-      </c>
-      <c r="PV1" t="s">
-        <v>435</v>
-      </c>
-      <c r="PW1" t="s">
-        <v>436</v>
-      </c>
-      <c r="PX1" t="s">
-        <v>437</v>
-      </c>
-      <c r="PY1" t="s">
-        <v>438</v>
-      </c>
-      <c r="PZ1" t="s">
-        <v>439</v>
-      </c>
-      <c r="QA1" t="s">
-        <v>440</v>
-      </c>
-      <c r="QB1" t="s">
-        <v>441</v>
-      </c>
-      <c r="QC1" t="s">
-        <v>442</v>
-      </c>
-      <c r="QD1" t="s">
-        <v>443</v>
-      </c>
-      <c r="QE1" t="s">
-        <v>444</v>
-      </c>
-      <c r="QF1" t="s">
-        <v>445</v>
-      </c>
-      <c r="QG1" t="s">
-        <v>446</v>
-      </c>
-      <c r="QH1" t="s">
-        <v>447</v>
-      </c>
-      <c r="QI1" t="s">
-        <v>448</v>
-      </c>
-      <c r="QJ1" t="s">
-        <v>449</v>
-      </c>
-      <c r="QK1" t="s">
-        <v>450</v>
-      </c>
-      <c r="QL1" t="s">
-        <v>451</v>
-      </c>
-      <c r="QM1" t="s">
-        <v>452</v>
-      </c>
-      <c r="QN1" t="s">
-        <v>453</v>
-      </c>
-      <c r="QO1" t="s">
-        <v>454</v>
-      </c>
-      <c r="QP1" t="s">
-        <v>455</v>
-      </c>
-      <c r="QQ1" t="s">
-        <v>456</v>
-      </c>
-      <c r="QR1" t="s">
-        <v>457</v>
-      </c>
-      <c r="QS1" t="s">
-        <v>458</v>
-      </c>
-      <c r="QT1" t="s">
-        <v>459</v>
-      </c>
-      <c r="QU1" t="s">
-        <v>460</v>
-      </c>
-      <c r="QV1" t="s">
-        <v>461</v>
-      </c>
-      <c r="QW1" t="s">
-        <v>462</v>
-      </c>
-      <c r="QX1" t="s">
-        <v>463</v>
-      </c>
-      <c r="QY1" t="s">
-        <v>464</v>
-      </c>
-      <c r="QZ1" t="s">
-        <v>465</v>
-      </c>
-      <c r="RA1" t="s">
-        <v>466</v>
-      </c>
-      <c r="RB1" t="s">
-        <v>467</v>
-      </c>
-      <c r="RC1" t="s">
-        <v>468</v>
-      </c>
-      <c r="RD1" t="s">
-        <v>469</v>
-      </c>
-      <c r="RE1" t="s">
-        <v>470</v>
-      </c>
-      <c r="RF1" t="s">
-        <v>471</v>
-      </c>
-      <c r="RG1" t="s">
-        <v>472</v>
-      </c>
-      <c r="RH1" t="s">
-        <v>473</v>
-      </c>
-      <c r="RI1" t="s">
-        <v>474</v>
-      </c>
-      <c r="RJ1" t="s">
-        <v>475</v>
-      </c>
-      <c r="RK1" t="s">
-        <v>476</v>
-      </c>
-      <c r="RL1" t="s">
-        <v>477</v>
-      </c>
-      <c r="RM1" t="s">
-        <v>478</v>
-      </c>
-      <c r="RN1" t="s">
-        <v>479</v>
-      </c>
-      <c r="RO1" t="s">
-        <v>480</v>
-      </c>
-      <c r="RP1" t="s">
-        <v>481</v>
-      </c>
-      <c r="RQ1" t="s">
-        <v>482</v>
-      </c>
-      <c r="RR1" t="s">
-        <v>483</v>
-      </c>
-      <c r="RS1" t="s">
-        <v>484</v>
-      </c>
-      <c r="RT1" t="s">
-        <v>485</v>
-      </c>
-      <c r="RU1" t="s">
-        <v>486</v>
-      </c>
-      <c r="RV1" t="s">
-        <v>487</v>
-      </c>
-      <c r="RW1" t="s">
-        <v>488</v>
-      </c>
-      <c r="RX1" t="s">
-        <v>489</v>
-      </c>
-      <c r="RY1" t="s">
-        <v>490</v>
-      </c>
-      <c r="RZ1" t="s">
-        <v>491</v>
-      </c>
-      <c r="SA1" t="s">
-        <v>492</v>
-      </c>
-      <c r="SB1" t="s">
-        <v>493</v>
-      </c>
-      <c r="SC1" t="s">
-        <v>494</v>
-      </c>
-      <c r="SD1" t="s">
-        <v>495</v>
-      </c>
-      <c r="SE1" t="s">
-        <v>496</v>
-      </c>
-      <c r="SF1" t="s">
-        <v>497</v>
-      </c>
-      <c r="SG1" t="s">
-        <v>498</v>
-      </c>
-      <c r="SH1" t="s">
-        <v>499</v>
-      </c>
-      <c r="SI1" t="s">
-        <v>500</v>
-      </c>
-      <c r="SJ1" t="s">
-        <v>501</v>
-      </c>
-      <c r="SK1" t="s">
-        <v>502</v>
-      </c>
-      <c r="SL1" t="s">
-        <v>503</v>
-      </c>
-      <c r="SM1" t="s">
-        <v>504</v>
-      </c>
-      <c r="SN1" t="s">
-        <v>505</v>
-      </c>
-      <c r="SO1" t="s">
-        <v>506</v>
-      </c>
-      <c r="SP1" t="s">
-        <v>507</v>
-      </c>
-      <c r="SQ1" t="s">
-        <v>508</v>
-      </c>
-      <c r="SR1" t="s">
-        <v>509</v>
-      </c>
-      <c r="SS1" t="s">
-        <v>510</v>
-      </c>
-      <c r="ST1" t="s">
-        <v>511</v>
-      </c>
-      <c r="SU1" t="s">
-        <v>512</v>
-      </c>
-      <c r="SV1" t="s">
-        <v>513</v>
-      </c>
-      <c r="SW1" t="s">
-        <v>514</v>
-      </c>
-      <c r="SX1" t="s">
-        <v>515</v>
-      </c>
-      <c r="SY1" t="s">
-        <v>516</v>
-      </c>
-      <c r="SZ1" t="s">
-        <v>517</v>
-      </c>
-      <c r="TA1" t="s">
-        <v>518</v>
-      </c>
-      <c r="TB1" t="s">
-        <v>519</v>
-      </c>
-      <c r="TC1" t="s">
-        <v>520</v>
-      </c>
-      <c r="TD1" t="s">
-        <v>521</v>
-      </c>
-      <c r="TE1" t="s">
-        <v>522</v>
-      </c>
-      <c r="TF1" t="s">
-        <v>523</v>
-      </c>
-      <c r="TG1" t="s">
-        <v>524</v>
-      </c>
-      <c r="TH1" t="s">
-        <v>525</v>
-      </c>
-      <c r="TI1" t="s">
-        <v>526</v>
-      </c>
-      <c r="TJ1" t="s">
-        <v>527</v>
-      </c>
-      <c r="TK1" t="s">
-        <v>528</v>
-      </c>
-      <c r="TL1" t="s">
-        <v>529</v>
-      </c>
-      <c r="TM1" t="s">
-        <v>530</v>
-      </c>
-      <c r="TN1" t="s">
-        <v>531</v>
-      </c>
-      <c r="TO1" t="s">
-        <v>532</v>
-      </c>
-      <c r="TP1" t="s">
-        <v>533</v>
-      </c>
-      <c r="TQ1" t="s">
-        <v>534</v>
-      </c>
-      <c r="TR1" t="s">
-        <v>535</v>
-      </c>
-      <c r="TS1" t="s">
-        <v>536</v>
-      </c>
-      <c r="TT1" t="s">
-        <v>537</v>
-      </c>
-      <c r="TU1" t="s">
-        <v>538</v>
-      </c>
-      <c r="TV1" t="s">
-        <v>539</v>
-      </c>
-      <c r="TW1" t="s">
-        <v>540</v>
-      </c>
-      <c r="TX1" t="s">
-        <v>541</v>
-      </c>
-      <c r="TY1" t="s">
-        <v>542</v>
-      </c>
-      <c r="TZ1" t="s">
-        <v>543</v>
-      </c>
-      <c r="UA1" t="s">
-        <v>544</v>
-      </c>
-      <c r="UB1" t="s">
-        <v>545</v>
-      </c>
-      <c r="UC1" t="s">
-        <v>546</v>
-      </c>
-      <c r="UD1" t="s">
-        <v>547</v>
-      </c>
-      <c r="UE1" t="s">
-        <v>548</v>
-      </c>
-      <c r="UF1" t="s">
-        <v>549</v>
-      </c>
-      <c r="UG1" t="s">
-        <v>550</v>
-      </c>
-      <c r="UH1" t="s">
-        <v>551</v>
-      </c>
-      <c r="UI1" t="s">
-        <v>552</v>
-      </c>
-      <c r="UJ1" t="s">
-        <v>553</v>
-      </c>
-      <c r="UK1" t="s">
-        <v>554</v>
-      </c>
-      <c r="UL1" t="s">
-        <v>555</v>
-      </c>
-      <c r="UM1" t="s">
-        <v>556</v>
-      </c>
-      <c r="UN1" t="s">
-        <v>557</v>
-      </c>
-      <c r="UO1" t="s">
-        <v>558</v>
-      </c>
-      <c r="UP1" t="s">
-        <v>559</v>
-      </c>
-      <c r="UQ1" t="s">
-        <v>560</v>
-      </c>
-      <c r="UR1" t="s">
-        <v>561</v>
-      </c>
-      <c r="US1" t="s">
-        <v>562</v>
-      </c>
-      <c r="UT1" t="s">
-        <v>563</v>
-      </c>
-      <c r="UU1" t="s">
-        <v>564</v>
-      </c>
-      <c r="UV1" t="s">
-        <v>565</v>
-      </c>
-      <c r="UW1" t="s">
-        <v>566</v>
-      </c>
-      <c r="UX1" t="s">
-        <v>567</v>
-      </c>
-      <c r="UY1" t="s">
-        <v>568</v>
-      </c>
-      <c r="UZ1" t="s">
-        <v>569</v>
-      </c>
-      <c r="VA1" t="s">
-        <v>570</v>
-      </c>
-      <c r="VB1" t="s">
-        <v>571</v>
-      </c>
-      <c r="VC1" t="s">
-        <v>572</v>
-      </c>
-      <c r="VD1" t="s">
-        <v>573</v>
-      </c>
-      <c r="VE1" t="s">
-        <v>574</v>
-      </c>
-      <c r="VF1" t="s">
-        <v>575</v>
-      </c>
-      <c r="VG1" t="s">
-        <v>576</v>
-      </c>
-      <c r="VH1" t="s">
-        <v>577</v>
-      </c>
-      <c r="VI1" t="s">
-        <v>578</v>
-      </c>
-      <c r="VJ1" t="s">
-        <v>579</v>
-      </c>
-      <c r="VK1" t="s">
-        <v>580</v>
-      </c>
-      <c r="VL1" t="s">
-        <v>581</v>
-      </c>
-      <c r="VM1" t="s">
-        <v>582</v>
-      </c>
-      <c r="VN1" t="s">
-        <v>583</v>
-      </c>
-      <c r="VO1" t="s">
-        <v>584</v>
-      </c>
-      <c r="VP1" t="s">
-        <v>585</v>
-      </c>
-      <c r="VQ1" t="s">
-        <v>586</v>
-      </c>
-      <c r="VR1" t="s">
-        <v>587</v>
-      </c>
-      <c r="VS1" t="s">
-        <v>588</v>
-      </c>
-      <c r="VT1" t="s">
-        <v>589</v>
-      </c>
-      <c r="VU1" t="s">
-        <v>590</v>
-      </c>
-      <c r="VV1" t="s">
-        <v>591</v>
-      </c>
-      <c r="VW1" t="s">
-        <v>592</v>
-      </c>
-      <c r="VX1" t="s">
-        <v>593</v>
-      </c>
-      <c r="VY1" t="s">
-        <v>594</v>
-      </c>
-      <c r="VZ1" t="s">
-        <v>595</v>
-      </c>
-      <c r="WA1" t="s">
-        <v>596</v>
-      </c>
-      <c r="WB1" t="s">
-        <v>597</v>
-      </c>
-      <c r="WC1" t="s">
-        <v>598</v>
-      </c>
-      <c r="WD1" t="s">
-        <v>599</v>
-      </c>
-      <c r="WE1" t="s">
-        <v>600</v>
-      </c>
-      <c r="WF1" t="s">
-        <v>601</v>
-      </c>
-      <c r="WG1" t="s">
-        <v>602</v>
-      </c>
-      <c r="WH1" t="s">
-        <v>603</v>
-      </c>
-      <c r="WI1" t="s">
-        <v>604</v>
-      </c>
-      <c r="WJ1" t="s">
-        <v>605</v>
-      </c>
-      <c r="WK1" t="s">
-        <v>606</v>
-      </c>
-      <c r="WL1" t="s">
-        <v>607</v>
-      </c>
-      <c r="WM1" t="s">
-        <v>608</v>
-      </c>
-      <c r="WN1" t="s">
-        <v>609</v>
-      </c>
-      <c r="WO1" t="s">
-        <v>610</v>
-      </c>
-      <c r="WP1" t="s">
-        <v>611</v>
-      </c>
-      <c r="WQ1" t="s">
-        <v>612</v>
-      </c>
-      <c r="WR1" t="s">
-        <v>613</v>
-      </c>
-      <c r="WS1" t="s">
-        <v>614</v>
-      </c>
-      <c r="WT1" t="s">
-        <v>615</v>
-      </c>
-      <c r="WU1" t="s">
-        <v>616</v>
-      </c>
-      <c r="WV1" t="s">
-        <v>617</v>
-      </c>
-      <c r="WW1" t="s">
-        <v>618</v>
-      </c>
-      <c r="WX1" t="s">
-        <v>619</v>
-      </c>
-      <c r="WY1" t="s">
-        <v>620</v>
-      </c>
-      <c r="WZ1" t="s">
-        <v>621</v>
-      </c>
-      <c r="XA1" t="s">
-        <v>622</v>
-      </c>
-      <c r="XB1" t="s">
-        <v>623</v>
-      </c>
-      <c r="XC1" t="s">
-        <v>624</v>
-      </c>
-      <c r="XD1" t="s">
-        <v>625</v>
-      </c>
-      <c r="XE1" t="s">
-        <v>626</v>
-      </c>
-      <c r="XF1" t="s">
-        <v>627</v>
-      </c>
-      <c r="XG1" t="s">
-        <v>628</v>
-      </c>
-      <c r="XH1" t="s">
-        <v>629</v>
-      </c>
-      <c r="XI1" t="s">
-        <v>630</v>
-      </c>
-      <c r="XJ1" t="s">
-        <v>631</v>
-      </c>
-      <c r="XK1" t="s">
-        <v>632</v>
-      </c>
-      <c r="XL1" t="s">
-        <v>633</v>
-      </c>
-      <c r="XM1" t="s">
-        <v>634</v>
-      </c>
-      <c r="XN1" t="s">
-        <v>635</v>
-      </c>
-      <c r="XO1" t="s">
-        <v>636</v>
-      </c>
-      <c r="XP1" t="s">
-        <v>637</v>
-      </c>
-      <c r="XQ1" t="s">
-        <v>638</v>
-      </c>
-      <c r="XR1" t="s">
-        <v>639</v>
-      </c>
-      <c r="XS1" t="s">
-        <v>640</v>
-      </c>
-      <c r="XT1" t="s">
-        <v>641</v>
-      </c>
-      <c r="XU1" t="s">
-        <v>642</v>
-      </c>
-      <c r="XV1" t="s">
-        <v>643</v>
-      </c>
-      <c r="XW1" t="s">
-        <v>644</v>
-      </c>
-      <c r="XX1" t="s">
-        <v>645</v>
-      </c>
-      <c r="XY1" t="s">
-        <v>646</v>
-      </c>
-      <c r="XZ1" t="s">
-        <v>647</v>
-      </c>
-      <c r="YA1" t="s">
-        <v>648</v>
-      </c>
-      <c r="YB1" t="s">
-        <v>649</v>
-      </c>
-      <c r="YC1" t="s">
-        <v>650</v>
-      </c>
-      <c r="YD1" t="s">
-        <v>651</v>
-      </c>
-      <c r="YE1" t="s">
-        <v>652</v>
-      </c>
-      <c r="YF1" t="s">
-        <v>653</v>
-      </c>
-      <c r="YG1" t="s">
-        <v>654</v>
-      </c>
-      <c r="YH1" t="s">
-        <v>655</v>
-      </c>
-      <c r="YI1" t="s">
-        <v>656</v>
-      </c>
-      <c r="YJ1" t="s">
-        <v>657</v>
-      </c>
-      <c r="YK1" t="s">
-        <v>658</v>
-      </c>
-      <c r="YL1" t="s">
-        <v>659</v>
-      </c>
-      <c r="YM1" t="s">
-        <v>660</v>
-      </c>
-      <c r="YN1" t="s">
-        <v>661</v>
-      </c>
-      <c r="YO1" t="s">
-        <v>662</v>
-      </c>
-      <c r="YP1" t="s">
-        <v>663</v>
-      </c>
-      <c r="YQ1" t="s">
-        <v>664</v>
-      </c>
-      <c r="YR1" t="s">
-        <v>665</v>
-      </c>
-      <c r="YS1" t="s">
-        <v>666</v>
-      </c>
-      <c r="YT1" t="s">
-        <v>667</v>
-      </c>
-      <c r="YU1" t="s">
-        <v>668</v>
-      </c>
-      <c r="YV1" t="s">
-        <v>669</v>
-      </c>
-      <c r="YW1" t="s">
-        <v>670</v>
-      </c>
-      <c r="YX1" t="s">
-        <v>671</v>
-      </c>
-      <c r="YY1" t="s">
-        <v>672</v>
-      </c>
-      <c r="YZ1" t="s">
-        <v>673</v>
-      </c>
-      <c r="ZA1" t="s">
-        <v>674</v>
-      </c>
-      <c r="ZB1" t="s">
-        <v>675</v>
-      </c>
-      <c r="ZC1" t="s">
-        <v>676</v>
-      </c>
-      <c r="ZD1" t="s">
-        <v>677</v>
-      </c>
-      <c r="ZE1" t="s">
-        <v>678</v>
-      </c>
-      <c r="ZF1" t="s">
-        <v>679</v>
-      </c>
-      <c r="ZG1" t="s">
-        <v>680</v>
-      </c>
-      <c r="ZH1" t="s">
-        <v>681</v>
-      </c>
-      <c r="ZI1" t="s">
-        <v>682</v>
-      </c>
-      <c r="ZJ1" t="s">
-        <v>683</v>
-      </c>
-      <c r="ZK1" t="s">
-        <v>684</v>
-      </c>
-      <c r="ZL1" t="s">
-        <v>685</v>
-      </c>
-      <c r="ZM1" t="s">
-        <v>686</v>
-      </c>
-      <c r="ZN1" t="s">
-        <v>687</v>
-      </c>
-      <c r="ZO1" t="s">
-        <v>688</v>
-      </c>
-      <c r="ZP1" t="s">
-        <v>689</v>
-      </c>
-      <c r="ZQ1" t="s">
-        <v>690</v>
-      </c>
-      <c r="ZR1" t="s">
-        <v>691</v>
-      </c>
-      <c r="ZS1" t="s">
-        <v>692</v>
-      </c>
-      <c r="ZT1" t="s">
-        <v>693</v>
-      </c>
-      <c r="ZU1" t="s">
-        <v>694</v>
-      </c>
-      <c r="ZV1" t="s">
-        <v>695</v>
-      </c>
-      <c r="ZW1" t="s">
-        <v>696</v>
-      </c>
-      <c r="ZX1" t="s">
-        <v>697</v>
-      </c>
-      <c r="ZY1" t="s">
-        <v>698</v>
-      </c>
-      <c r="ZZ1" t="s">
-        <v>699</v>
-      </c>
-      <c r="AAA1" t="s">
-        <v>700</v>
-      </c>
-      <c r="AAB1" t="s">
-        <v>701</v>
-      </c>
-      <c r="AAC1" t="s">
-        <v>702</v>
-      </c>
-      <c r="AAD1" t="s">
-        <v>703</v>
-      </c>
-      <c r="AAE1" t="s">
-        <v>704</v>
-      </c>
-      <c r="AAF1" t="s">
-        <v>705</v>
-      </c>
-      <c r="AAG1" t="s">
-        <v>706</v>
-      </c>
-      <c r="AAH1" t="s">
-        <v>707</v>
-      </c>
-      <c r="AAI1" t="s">
-        <v>708</v>
-      </c>
-      <c r="AAJ1" t="s">
-        <v>709</v>
-      </c>
-      <c r="AAK1" t="s">
-        <v>710</v>
-      </c>
-      <c r="AAL1" t="s">
-        <v>711</v>
-      </c>
-      <c r="AAM1" t="s">
-        <v>712</v>
-      </c>
-      <c r="AAN1" t="s">
-        <v>713</v>
-      </c>
-      <c r="AAO1" t="s">
-        <v>714</v>
-      </c>
-      <c r="AAP1" t="s">
-        <v>715</v>
-      </c>
-      <c r="AAQ1" t="s">
-        <v>716</v>
-      </c>
-      <c r="AAR1" t="s">
-        <v>717</v>
-      </c>
-      <c r="AAS1" t="s">
-        <v>718</v>
-      </c>
-      <c r="AAT1" t="s">
-        <v>719</v>
-      </c>
-      <c r="AAU1" t="s">
-        <v>720</v>
-      </c>
-      <c r="AAV1" t="s">
-        <v>721</v>
-      </c>
-      <c r="AAW1" t="s">
-        <v>722</v>
-      </c>
-      <c r="AAX1" t="s">
-        <v>723</v>
-      </c>
-      <c r="AAY1" t="s">
-        <v>724</v>
-      </c>
-      <c r="AAZ1" t="s">
-        <v>725</v>
-      </c>
-      <c r="ABA1" t="s">
-        <v>726</v>
-      </c>
-      <c r="ABB1" t="s">
-        <v>727</v>
-      </c>
-      <c r="ABC1" t="s">
-        <v>728</v>
-      </c>
-      <c r="ABD1" t="s">
-        <v>729</v>
-      </c>
-      <c r="ABE1" t="s">
-        <v>730</v>
-      </c>
-      <c r="ABF1" t="s">
-        <v>731</v>
-      </c>
-      <c r="ABG1" t="s">
-        <v>732</v>
-      </c>
-      <c r="ABH1" t="s">
-        <v>733</v>
-      </c>
-      <c r="ABI1" t="s">
-        <v>734</v>
-      </c>
-      <c r="ABJ1" t="s">
-        <v>735</v>
-      </c>
-      <c r="ABK1" t="s">
-        <v>736</v>
-      </c>
-      <c r="ABL1" t="s">
-        <v>737</v>
-      </c>
-      <c r="ABM1" t="s">
-        <v>738</v>
-      </c>
-      <c r="ABN1" t="s">
-        <v>739</v>
-      </c>
-      <c r="ABO1" t="s">
-        <v>740</v>
-      </c>
-      <c r="ABP1" t="s">
-        <v>741</v>
-      </c>
-      <c r="ABQ1" t="s">
-        <v>742</v>
-      </c>
-      <c r="ABR1" t="s">
-        <v>743</v>
-      </c>
-      <c r="ABS1" t="s">
-        <v>744</v>
-      </c>
-      <c r="ABT1" t="s">
-        <v>745</v>
-      </c>
-      <c r="ABU1" t="s">
-        <v>746</v>
-      </c>
-      <c r="ABV1" t="s">
-        <v>747</v>
-      </c>
-      <c r="ABW1" t="s">
-        <v>748</v>
-      </c>
-      <c r="ABX1" t="s">
-        <v>749</v>
-      </c>
-      <c r="ABY1" t="s">
-        <v>750</v>
-      </c>
-      <c r="ABZ1" t="s">
-        <v>751</v>
-      </c>
-      <c r="ACA1" t="s">
-        <v>752</v>
-      </c>
-      <c r="ACB1" t="s">
-        <v>753</v>
-      </c>
-      <c r="ACC1" t="s">
-        <v>754</v>
-      </c>
-      <c r="ACD1" t="s">
-        <v>755</v>
-      </c>
-      <c r="ACE1" t="s">
-        <v>756</v>
-      </c>
-      <c r="ACF1" t="s">
-        <v>757</v>
-      </c>
-      <c r="ACG1" t="s">
-        <v>758</v>
-      </c>
-      <c r="ACH1" t="s">
-        <v>759</v>
-      </c>
-      <c r="ACI1" t="s">
-        <v>760</v>
-      </c>
-      <c r="ACJ1" t="s">
-        <v>761</v>
-      </c>
-      <c r="ACK1" t="s">
-        <v>762</v>
-      </c>
-      <c r="ACL1" t="s">
-        <v>763</v>
-      </c>
-      <c r="ACM1" t="s">
-        <v>764</v>
-      </c>
-      <c r="ACN1" t="s">
-        <v>765</v>
-      </c>
-      <c r="ACO1" t="s">
-        <v>766</v>
-      </c>
-      <c r="ACP1" t="s">
-        <v>767</v>
-      </c>
-      <c r="ACQ1" t="s">
-        <v>768</v>
-      </c>
-      <c r="ACR1" t="s">
-        <v>769</v>
-      </c>
-      <c r="ACS1" t="s">
-        <v>770</v>
-      </c>
-      <c r="ACT1" t="s">
-        <v>771</v>
-      </c>
-      <c r="ACU1" t="s">
-        <v>772</v>
-      </c>
-      <c r="ACV1" t="s">
-        <v>773</v>
-      </c>
-      <c r="ACW1" t="s">
-        <v>774</v>
-      </c>
-      <c r="ACX1" t="s">
-        <v>775</v>
-      </c>
-      <c r="ACY1" t="s">
-        <v>776</v>
-      </c>
-      <c r="ACZ1" t="s">
-        <v>777</v>
-      </c>
-      <c r="ADA1" t="s">
-        <v>778</v>
-      </c>
-      <c r="ADB1" t="s">
-        <v>779</v>
-      </c>
-      <c r="ADC1" t="s">
-        <v>780</v>
-      </c>
-      <c r="ADD1" t="s">
-        <v>781</v>
-      </c>
-      <c r="ADE1" t="s">
-        <v>782</v>
-      </c>
-      <c r="ADF1" t="s">
-        <v>783</v>
-      </c>
-      <c r="ADG1" t="s">
-        <v>784</v>
-      </c>
-      <c r="ADH1" t="s">
-        <v>785</v>
-      </c>
-      <c r="ADI1" t="s">
-        <v>786</v>
-      </c>
-      <c r="ADJ1" t="s">
-        <v>787</v>
-      </c>
-      <c r="ADK1" t="s">
-        <v>788</v>
-      </c>
-      <c r="ADL1" t="s">
-        <v>789</v>
-      </c>
-      <c r="ADM1" t="s">
-        <v>790</v>
-      </c>
-      <c r="ADN1" t="s">
-        <v>791</v>
-      </c>
-      <c r="ADO1" t="s">
-        <v>792</v>
-      </c>
-      <c r="ADP1" t="s">
-        <v>793</v>
-      </c>
-      <c r="ADQ1" t="s">
-        <v>794</v>
-      </c>
-      <c r="ADR1" t="s">
-        <v>795</v>
-      </c>
-      <c r="ADS1" t="s">
-        <v>796</v>
-      </c>
-      <c r="ADT1" t="s">
-        <v>797</v>
-      </c>
-      <c r="ADU1" t="s">
-        <v>798</v>
-      </c>
-      <c r="ADV1" t="s">
-        <v>799</v>
-      </c>
-      <c r="ADW1" t="s">
-        <v>800</v>
-      </c>
-      <c r="ADX1" t="s">
-        <v>801</v>
-      </c>
-      <c r="ADY1" t="s">
-        <v>802</v>
-      </c>
-      <c r="ADZ1" t="s">
-        <v>803</v>
-      </c>
-      <c r="AEA1" t="s">
-        <v>804</v>
-      </c>
-      <c r="AEB1" t="s">
-        <v>805</v>
-      </c>
-      <c r="AEC1" t="s">
-        <v>806</v>
-      </c>
-      <c r="AED1" t="s">
-        <v>807</v>
-      </c>
-      <c r="AEE1" t="s">
-        <v>808</v>
-      </c>
-      <c r="AEF1" t="s">
-        <v>809</v>
-      </c>
-      <c r="AEG1" t="s">
-        <v>810</v>
-      </c>
-      <c r="AEH1" t="s">
-        <v>811</v>
-      </c>
-      <c r="AEI1" t="s">
-        <v>812</v>
-      </c>
-      <c r="AEJ1" t="s">
-        <v>813</v>
-      </c>
-      <c r="AEK1" t="s">
-        <v>814</v>
-      </c>
-      <c r="AEL1" t="s">
-        <v>815</v>
-      </c>
-      <c r="AEM1" t="s">
-        <v>816</v>
-      </c>
-      <c r="AEN1" t="s">
-        <v>817</v>
-      </c>
-      <c r="AEO1" t="s">
-        <v>818</v>
-      </c>
-      <c r="AEP1" t="s">
-        <v>819</v>
-      </c>
-      <c r="AEQ1" t="s">
-        <v>820</v>
-      </c>
-      <c r="AER1" t="s">
-        <v>821</v>
-      </c>
-      <c r="AES1" t="s">
-        <v>822</v>
-      </c>
-      <c r="AET1" t="s">
-        <v>823</v>
-      </c>
-      <c r="AEU1" t="s">
-        <v>824</v>
-      </c>
-      <c r="AEV1" t="s">
-        <v>825</v>
-      </c>
-      <c r="AEW1" t="s">
-        <v>826</v>
-      </c>
-      <c r="AEX1" t="s">
-        <v>827</v>
-      </c>
-      <c r="AEY1" t="s">
-        <v>828</v>
-      </c>
-      <c r="AEZ1" t="s">
-        <v>829</v>
-      </c>
-      <c r="AFA1" t="s">
-        <v>830</v>
-      </c>
-      <c r="AFB1" t="s">
-        <v>831</v>
-      </c>
-      <c r="AFC1" t="s">
-        <v>832</v>
-      </c>
-      <c r="AFD1" t="s">
-        <v>833</v>
-      </c>
-      <c r="AFE1" t="s">
-        <v>834</v>
-      </c>
-      <c r="AFF1" t="s">
-        <v>835</v>
-      </c>
-      <c r="AFG1" t="s">
-        <v>836</v>
-      </c>
-      <c r="AFH1" t="s">
-        <v>837</v>
-      </c>
-      <c r="AFI1" t="s">
-        <v>838</v>
-      </c>
-      <c r="AFJ1" t="s">
-        <v>839</v>
-      </c>
-      <c r="AFK1" t="s">
-        <v>840</v>
-      </c>
-      <c r="AFL1" t="s">
-        <v>841</v>
-      </c>
-      <c r="AFM1" t="s">
-        <v>842</v>
-      </c>
-      <c r="AFN1" t="s">
-        <v>843</v>
-      </c>
-      <c r="AFO1" t="s">
-        <v>844</v>
-      </c>
-      <c r="AFP1" t="s">
-        <v>845</v>
-      </c>
-      <c r="AFQ1" t="s">
-        <v>846</v>
-      </c>
-      <c r="AFR1" t="s">
-        <v>847</v>
-      </c>
-      <c r="AFS1" t="s">
-        <v>848</v>
-      </c>
-      <c r="AFT1" t="s">
-        <v>849</v>
-      </c>
-      <c r="AFU1" t="s">
-        <v>850</v>
-      </c>
-      <c r="AFV1" t="s">
-        <v>851</v>
-      </c>
-      <c r="AFW1" t="s">
-        <v>852</v>
-      </c>
-      <c r="AFX1" t="s">
-        <v>853</v>
-      </c>
-      <c r="AFY1" t="s">
-        <v>854</v>
-      </c>
-      <c r="AFZ1" t="s">
-        <v>855</v>
-      </c>
-      <c r="AGA1" t="s">
-        <v>856</v>
-      </c>
-      <c r="AGB1" t="s">
-        <v>857</v>
-      </c>
-      <c r="AGC1" t="s">
-        <v>858</v>
-      </c>
-      <c r="AGD1" t="s">
-        <v>859</v>
-      </c>
-      <c r="AGE1" t="s">
-        <v>860</v>
-      </c>
-      <c r="AGF1" t="s">
-        <v>861</v>
-      </c>
-      <c r="AGG1" t="s">
-        <v>862</v>
-      </c>
-      <c r="AGH1" t="s">
-        <v>863</v>
-      </c>
-      <c r="AGI1" t="s">
-        <v>864</v>
-      </c>
-      <c r="AGJ1" t="s">
-        <v>865</v>
-      </c>
-      <c r="AGK1" t="s">
-        <v>866</v>
-      </c>
-      <c r="AGL1" t="s">
-        <v>867</v>
-      </c>
-      <c r="AGM1" t="s">
-        <v>868</v>
-      </c>
-      <c r="AGN1" t="s">
-        <v>869</v>
-      </c>
-      <c r="AGO1" t="s">
-        <v>870</v>
-      </c>
-      <c r="AGP1" t="s">
-        <v>871</v>
-      </c>
-      <c r="AGQ1" t="s">
-        <v>872</v>
-      </c>
-      <c r="AGR1" t="s">
-        <v>873</v>
-      </c>
-      <c r="AGS1" t="s">
-        <v>874</v>
-      </c>
-      <c r="AGT1" t="s">
-        <v>875</v>
-      </c>
-      <c r="AGU1" t="s">
-        <v>876</v>
-      </c>
-      <c r="AGV1" t="s">
-        <v>877</v>
-      </c>
-      <c r="AGW1" t="s">
-        <v>878</v>
-      </c>
-      <c r="AGX1" t="s">
-        <v>879</v>
-      </c>
-      <c r="AGY1" t="s">
-        <v>880</v>
-      </c>
-      <c r="AGZ1" t="s">
-        <v>881</v>
-      </c>
-      <c r="AHA1" t="s">
-        <v>882</v>
-      </c>
-      <c r="AHB1" t="s">
-        <v>883</v>
-      </c>
-      <c r="AHC1" t="s">
-        <v>884</v>
-      </c>
-      <c r="AHD1" t="s">
-        <v>885</v>
-      </c>
-      <c r="AHE1" t="s">
-        <v>886</v>
-      </c>
-      <c r="AHF1" t="s">
-        <v>887</v>
-      </c>
-      <c r="AHG1" t="s">
-        <v>888</v>
-      </c>
-      <c r="AHH1" t="s">
-        <v>889</v>
-      </c>
-      <c r="AHI1" t="s">
-        <v>890</v>
-      </c>
-      <c r="AHJ1" t="s">
-        <v>891</v>
-      </c>
-      <c r="AHK1" t="s">
-        <v>892</v>
-      </c>
-      <c r="AHL1" t="s">
-        <v>893</v>
-      </c>
-      <c r="AHM1" t="s">
-        <v>894</v>
-      </c>
-      <c r="AHN1" t="s">
-        <v>895</v>
-      </c>
-      <c r="AHO1" t="s">
-        <v>896</v>
-      </c>
-      <c r="AHP1" t="s">
-        <v>897</v>
-      </c>
-      <c r="AHQ1" t="s">
-        <v>898</v>
-      </c>
-      <c r="AHR1" t="s">
-        <v>899</v>
-      </c>
-      <c r="AHS1" t="s">
-        <v>900</v>
-      </c>
-      <c r="AHT1" t="s">
-        <v>901</v>
-      </c>
-      <c r="AHU1" t="s">
-        <v>902</v>
-      </c>
-      <c r="AHV1" t="s">
-        <v>903</v>
-      </c>
-      <c r="AHW1" t="s">
-        <v>904</v>
-      </c>
-      <c r="AHX1" t="s">
-        <v>905</v>
-      </c>
-      <c r="AHY1" t="s">
-        <v>906</v>
-      </c>
-      <c r="AHZ1" t="s">
-        <v>907</v>
-      </c>
-      <c r="AIA1" t="s">
-        <v>908</v>
-      </c>
-      <c r="AIB1" t="s">
-        <v>909</v>
-      </c>
-      <c r="AIC1" t="s">
-        <v>910</v>
-      </c>
-      <c r="AID1" t="s">
-        <v>911</v>
-      </c>
-      <c r="AIE1" t="s">
-        <v>912</v>
-      </c>
-      <c r="AIF1" t="s">
-        <v>913</v>
-      </c>
-      <c r="AIG1" t="s">
-        <v>914</v>
-      </c>
-      <c r="AIH1" t="s">
-        <v>915</v>
-      </c>
-      <c r="AII1" t="s">
-        <v>916</v>
-      </c>
-      <c r="AIJ1" t="s">
-        <v>917</v>
-      </c>
-      <c r="AIK1" t="s">
-        <v>918</v>
-      </c>
-      <c r="AIL1" t="s">
-        <v>919</v>
-      </c>
-      <c r="AIM1" t="s">
-        <v>920</v>
-      </c>
-      <c r="AIN1" t="s">
-        <v>921</v>
-      </c>
-      <c r="AIO1" t="s">
-        <v>922</v>
-      </c>
-      <c r="AIP1" t="s">
-        <v>923</v>
-      </c>
-      <c r="AIQ1" t="s">
-        <v>924</v>
-      </c>
-      <c r="AIR1" t="s">
-        <v>925</v>
-      </c>
-      <c r="AIS1" t="s">
-        <v>926</v>
-      </c>
-      <c r="AIT1" t="s">
-        <v>927</v>
-      </c>
-      <c r="AIU1" t="s">
-        <v>928</v>
-      </c>
-      <c r="AIV1" t="s">
-        <v>929</v>
-      </c>
-      <c r="AIW1" t="s">
-        <v>930</v>
-      </c>
-      <c r="AIX1" t="s">
-        <v>931</v>
-      </c>
-      <c r="AIY1" t="s">
-        <v>932</v>
-      </c>
-      <c r="AIZ1" t="s">
-        <v>933</v>
-      </c>
-      <c r="AJA1" t="s">
-        <v>934</v>
-      </c>
-      <c r="AJB1" t="s">
-        <v>935</v>
-      </c>
-      <c r="AJC1" t="s">
-        <v>936</v>
-      </c>
-      <c r="AJD1" t="s">
-        <v>937</v>
-      </c>
-      <c r="AJE1" t="s">
-        <v>938</v>
-      </c>
-      <c r="AJF1" t="s">
-        <v>939</v>
-      </c>
-      <c r="AJG1" t="s">
-        <v>940</v>
-      </c>
-      <c r="AJH1" t="s">
-        <v>941</v>
-      </c>
-      <c r="AJI1" t="s">
-        <v>942</v>
-      </c>
-      <c r="AJJ1" t="s">
-        <v>943</v>
-      </c>
-      <c r="AJK1" t="s">
-        <v>944</v>
-      </c>
-      <c r="AJL1" t="s">
-        <v>945</v>
-      </c>
-      <c r="AJM1" t="s">
-        <v>946</v>
-      </c>
-      <c r="AJN1" t="s">
-        <v>947</v>
-      </c>
-      <c r="AJO1" t="s">
-        <v>948</v>
-      </c>
-      <c r="AJP1" t="s">
-        <v>949</v>
-      </c>
-      <c r="AJQ1" t="s">
-        <v>950</v>
-      </c>
-      <c r="AJR1" t="s">
-        <v>951</v>
-      </c>
-      <c r="AJS1" t="s">
-        <v>952</v>
-      </c>
-      <c r="AJT1" t="s">
-        <v>953</v>
-      </c>
-      <c r="AJU1" t="s">
-        <v>954</v>
-      </c>
-      <c r="AJV1" t="s">
-        <v>955</v>
-      </c>
-      <c r="AJW1" t="s">
-        <v>956</v>
-      </c>
-      <c r="AJX1" t="s">
-        <v>957</v>
-      </c>
-      <c r="AJY1" t="s">
-        <v>958</v>
-      </c>
-      <c r="AJZ1" t="s">
-        <v>959</v>
-      </c>
-      <c r="AKA1" t="s">
-        <v>960</v>
-      </c>
-      <c r="AKB1" t="s">
-        <v>961</v>
-      </c>
-      <c r="AKC1" t="s">
-        <v>962</v>
-      </c>
-      <c r="AKD1" t="s">
-        <v>963</v>
-      </c>
-      <c r="AKE1" t="s">
-        <v>964</v>
-      </c>
-      <c r="AKF1" t="s">
-        <v>965</v>
-      </c>
-      <c r="AKG1" t="s">
-        <v>966</v>
-      </c>
-      <c r="AKH1" t="s">
-        <v>967</v>
-      </c>
-      <c r="AKI1" t="s">
-        <v>968</v>
-      </c>
-      <c r="AKJ1" t="s">
-        <v>969</v>
-      </c>
-      <c r="AKK1" t="s">
-        <v>970</v>
-      </c>
-      <c r="AKL1" t="s">
-        <v>971</v>
-      </c>
-      <c r="AKM1" t="s">
-        <v>972</v>
-      </c>
-      <c r="AKN1" t="s">
-        <v>973</v>
-      </c>
-      <c r="AKO1" t="s">
-        <v>974</v>
-      </c>
-      <c r="AKP1" t="s">
-        <v>975</v>
-      </c>
-      <c r="AKQ1" t="s">
-        <v>976</v>
-      </c>
-      <c r="AKR1" t="s">
-        <v>977</v>
-      </c>
-      <c r="AKS1" t="s">
-        <v>978</v>
-      </c>
-      <c r="AKT1" t="s">
-        <v>979</v>
-      </c>
-      <c r="AKU1" t="s">
-        <v>980</v>
-      </c>
-      <c r="AKV1" t="s">
-        <v>981</v>
-      </c>
-      <c r="AKW1" t="s">
-        <v>982</v>
-      </c>
-      <c r="AKX1" t="s">
-        <v>983</v>
-      </c>
-      <c r="AKY1" t="s">
-        <v>984</v>
-      </c>
-      <c r="AKZ1" t="s">
-        <v>985</v>
-      </c>
-      <c r="ALA1" t="s">
-        <v>986</v>
-      </c>
-      <c r="ALB1" t="s">
-        <v>987</v>
-      </c>
-      <c r="ALC1" t="s">
-        <v>988</v>
-      </c>
-      <c r="ALD1" t="s">
-        <v>989</v>
-      </c>
-      <c r="ALE1" t="s">
-        <v>990</v>
-      </c>
-      <c r="ALF1" t="s">
-        <v>991</v>
-      </c>
-      <c r="ALG1" t="s">
-        <v>992</v>
-      </c>
-      <c r="ALH1" t="s">
-        <v>993</v>
-      </c>
-      <c r="ALI1" t="s">
-        <v>994</v>
-      </c>
-      <c r="ALJ1" t="s">
-        <v>995</v>
-      </c>
-      <c r="ALK1" t="s">
-        <v>996</v>
-      </c>
-      <c r="ALL1" t="s">
-        <v>997</v>
-      </c>
-      <c r="ALM1" t="s">
-        <v>998</v>
-      </c>
-      <c r="ALN1" t="s">
-        <v>999</v>
-      </c>
-      <c r="ALO1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="ALP1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="ALQ1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="ALR1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="ALS1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="ALT1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="ALU1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="ALV1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="ALW1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="ALX1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="ALY1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="ALZ1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="AMA1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AMB1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AMC1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AMD1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AME1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AMF1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AMG1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="AMH1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="AMI1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="AMJ1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="AMK1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AML1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AMM1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AMN1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="AMO1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AMP1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="AMQ1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="AMR1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AMS1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="AMT1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="AMU1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="AMV1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="AMW1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="AMX1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="AMY1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="AMZ1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="ANA1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="ANB1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="ANC1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AND1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="ANE1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="ANF1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="ANG1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="ANH1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="ANI1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="ANJ1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="ANK1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="ANL1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="ANM1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="ANN1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="ANO1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="ANP1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="ANQ1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="ANR1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="ANS1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="ANT1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="ANU1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="ANV1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="ANW1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="ANX1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="ANY1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="ANZ1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AOA1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="AOB1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AOC1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AOD1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="AOE1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="AOF1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="AOG1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AOH1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="AOI1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AOJ1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="AOK1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AOL1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="AOM1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="AON1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="AOO1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="AOP1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AOQ1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AOR1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="AOS1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="AOT1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AOU1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AOV1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AOW1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AOX1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AOY1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AOZ1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="APA1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="APB1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="APC1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="APD1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="APE1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="APF1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="APG1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="APH1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="API1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="APJ1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="APK1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="APL1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="APM1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="APN1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="APO1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="APP1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="APQ1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="APR1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="APS1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="APT1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="APU1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="APV1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="APW1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="APX1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="APY1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="APZ1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="AQA1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="AQB1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="AQC1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="AQD1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AQE1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="AQF1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AQG1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AQH1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="AQI1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="AQJ1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="AQK1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AQL1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AQM1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AQN1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AQO1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="AQP1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AQQ1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="AQR1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="AQS1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="AQT1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="AQU1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AQV1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="AQW1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="AQX1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AQY1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="AQZ1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="ARA1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="ARB1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="ARC1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="ARD1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="ARE1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="ARF1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="ARG1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="ARH1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="ARI1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="ARJ1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="ARK1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="ARL1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="ARM1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="ARN1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="ARO1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="ARP1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="ARQ1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="ARR1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="ARS1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="ART1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="ARU1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="ARV1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="ARW1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="ARX1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="ARY1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="ARZ1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="ASA1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="ASB1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="ASC1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="ASD1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="ASE1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="ASF1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="ASG1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="ASH1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="ASI1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="ASJ1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="ASK1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="ASL1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="ASM1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="ASN1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="ASO1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="ASP1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="ASQ1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="ASR1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="ASS1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="AST1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="ASU1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="ASV1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="ASW1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="ASX1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="ASY1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="ASZ1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="ATA1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="ATB1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="ATC1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="ATD1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="ATE1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="ATF1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="ATG1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="ATH1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="ATI1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="ATJ1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="ATK1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="ATL1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="ATM1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="ATN1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="ATO1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="ATP1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="ATQ1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="ATR1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="ATS1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="ATT1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="ATU1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="ATV1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="ATW1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="ATX1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="ATY1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="ATZ1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="AUA1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="AUB1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="AUC1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="AUD1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="AUE1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="AUF1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="AUG1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="AUH1" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="2" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1229</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0.330974271602681</v>
@@ -11907,10 +11917,10 @@
     </row>
     <row r="3" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1230</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1229</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0.29856208802384299</v>
@@ -15599,10 +15609,10 @@
     </row>
     <row r="4" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1231</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1229</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0.24035928562732001</v>
@@ -19291,10 +19301,10 @@
     </row>
     <row r="5" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1232</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1233</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0.31070418188169802</v>
@@ -22983,10 +22993,10 @@
     </row>
     <row r="6" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1234</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>1233</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0.292817011254695</v>
@@ -26675,10 +26685,10 @@
     </row>
     <row r="7" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1235</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>1233</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>0.48628055392873498</v>
@@ -30367,10 +30377,10 @@
     </row>
     <row r="8" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1236</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>1237</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0.29127445776914901</v>
@@ -34059,10 +34069,10 @@
     </row>
     <row r="9" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1238</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>1237</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0.300196945300578</v>
@@ -37751,10 +37761,10 @@
     </row>
     <row r="10" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1239</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>1237</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>0.281572114669498</v>
@@ -41443,10 +41453,10 @@
     </row>
     <row r="11" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1240</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>1241</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>0.26531699696876898</v>
@@ -45135,10 +45145,10 @@
     </row>
     <row r="12" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1242</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>1241</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>0.31662646253172499</v>
@@ -48827,10 +48837,10 @@
     </row>
     <row r="13" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1243</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>1241</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>0.37040411269192602</v>
@@ -52519,10 +52529,10 @@
     </row>
     <row r="14" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1244</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>1245</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>0.40543354792161701</v>
@@ -56211,10 +56221,10 @@
     </row>
     <row r="15" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1246</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>1245</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>0.51701785006779999</v>
@@ -59903,10 +59913,10 @@
     </row>
     <row r="16" spans="1:1230" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1247</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>1245</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>0.64908842399963096</v>
@@ -63599,7 +63609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DP16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -63610,372 +63620,372 @@
   <sheetData>
     <row r="1" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1377</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1378</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>1248</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>1249</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>1250</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>1251</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>1252</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>1253</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>1254</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>1255</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>1256</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>1257</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>1258</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>1259</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>1260</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>1261</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>1262</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>1263</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>1264</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>1265</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>1266</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>1267</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>1268</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>1269</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>1270</v>
+        <v>42</v>
       </c>
       <c r="Z1" t="s">
-        <v>1271</v>
+        <v>43</v>
       </c>
       <c r="AA1" t="s">
-        <v>1272</v>
+        <v>44</v>
       </c>
       <c r="AB1" t="s">
-        <v>1273</v>
+        <v>45</v>
       </c>
       <c r="AC1" t="s">
-        <v>1274</v>
+        <v>46</v>
       </c>
       <c r="AD1" t="s">
-        <v>1275</v>
+        <v>47</v>
       </c>
       <c r="AE1" t="s">
-        <v>1276</v>
+        <v>48</v>
       </c>
       <c r="AF1" t="s">
-        <v>1277</v>
+        <v>49</v>
       </c>
       <c r="AG1" t="s">
-        <v>1278</v>
+        <v>50</v>
       </c>
       <c r="AH1" t="s">
-        <v>1279</v>
+        <v>51</v>
       </c>
       <c r="AI1" t="s">
-        <v>1280</v>
+        <v>52</v>
       </c>
       <c r="AJ1" t="s">
-        <v>1281</v>
+        <v>53</v>
       </c>
       <c r="AK1" t="s">
-        <v>1282</v>
+        <v>54</v>
       </c>
       <c r="AL1" t="s">
-        <v>1283</v>
+        <v>55</v>
       </c>
       <c r="AM1" t="s">
-        <v>1284</v>
+        <v>56</v>
       </c>
       <c r="AN1" t="s">
-        <v>1285</v>
+        <v>57</v>
       </c>
       <c r="AO1" t="s">
-        <v>1286</v>
+        <v>58</v>
       </c>
       <c r="AP1" t="s">
-        <v>1287</v>
+        <v>59</v>
       </c>
       <c r="AQ1" t="s">
-        <v>1288</v>
+        <v>60</v>
       </c>
       <c r="AR1" t="s">
-        <v>1289</v>
+        <v>61</v>
       </c>
       <c r="AS1" t="s">
-        <v>1290</v>
+        <v>62</v>
       </c>
       <c r="AT1" t="s">
-        <v>1291</v>
+        <v>63</v>
       </c>
       <c r="AU1" t="s">
-        <v>1292</v>
+        <v>64</v>
       </c>
       <c r="AV1" t="s">
-        <v>1293</v>
+        <v>65</v>
       </c>
       <c r="AW1" t="s">
-        <v>1294</v>
+        <v>66</v>
       </c>
       <c r="AX1" t="s">
-        <v>1295</v>
+        <v>67</v>
       </c>
       <c r="AY1" t="s">
-        <v>1296</v>
+        <v>68</v>
       </c>
       <c r="AZ1" t="s">
-        <v>1297</v>
+        <v>69</v>
       </c>
       <c r="BA1" t="s">
-        <v>1298</v>
+        <v>70</v>
       </c>
       <c r="BB1" t="s">
-        <v>1299</v>
+        <v>71</v>
       </c>
       <c r="BC1" t="s">
-        <v>1300</v>
+        <v>72</v>
       </c>
       <c r="BD1" t="s">
-        <v>1301</v>
+        <v>73</v>
       </c>
       <c r="BE1" t="s">
-        <v>1302</v>
+        <v>74</v>
       </c>
       <c r="BF1" t="s">
-        <v>1303</v>
+        <v>75</v>
       </c>
       <c r="BG1" t="s">
-        <v>1304</v>
+        <v>76</v>
       </c>
       <c r="BH1" t="s">
-        <v>1305</v>
+        <v>77</v>
       </c>
       <c r="BI1" t="s">
-        <v>1306</v>
+        <v>78</v>
       </c>
       <c r="BJ1" t="s">
-        <v>1307</v>
+        <v>79</v>
       </c>
       <c r="BK1" t="s">
-        <v>1308</v>
+        <v>80</v>
       </c>
       <c r="BL1" t="s">
-        <v>1309</v>
+        <v>81</v>
       </c>
       <c r="BM1" t="s">
-        <v>1310</v>
+        <v>82</v>
       </c>
       <c r="BN1" t="s">
-        <v>1311</v>
+        <v>83</v>
       </c>
       <c r="BO1" t="s">
-        <v>1312</v>
+        <v>84</v>
       </c>
       <c r="BP1" t="s">
-        <v>1313</v>
+        <v>85</v>
       </c>
       <c r="BQ1" t="s">
-        <v>1314</v>
+        <v>86</v>
       </c>
       <c r="BR1" t="s">
-        <v>1315</v>
+        <v>87</v>
       </c>
       <c r="BS1" t="s">
-        <v>1316</v>
+        <v>88</v>
       </c>
       <c r="BT1" t="s">
-        <v>1317</v>
+        <v>89</v>
       </c>
       <c r="BU1" t="s">
-        <v>1318</v>
+        <v>90</v>
       </c>
       <c r="BV1" t="s">
-        <v>1319</v>
+        <v>91</v>
       </c>
       <c r="BW1" t="s">
-        <v>1320</v>
+        <v>92</v>
       </c>
       <c r="BX1" t="s">
-        <v>1321</v>
+        <v>93</v>
       </c>
       <c r="BY1" t="s">
-        <v>1322</v>
+        <v>94</v>
       </c>
       <c r="BZ1" t="s">
-        <v>1323</v>
+        <v>95</v>
       </c>
       <c r="CA1" t="s">
-        <v>1324</v>
+        <v>96</v>
       </c>
       <c r="CB1" t="s">
-        <v>1325</v>
+        <v>97</v>
       </c>
       <c r="CC1" t="s">
-        <v>1326</v>
+        <v>98</v>
       </c>
       <c r="CD1" t="s">
-        <v>1327</v>
+        <v>99</v>
       </c>
       <c r="CE1" t="s">
-        <v>1328</v>
+        <v>100</v>
       </c>
       <c r="CF1" t="s">
-        <v>1329</v>
+        <v>101</v>
       </c>
       <c r="CG1" t="s">
-        <v>1330</v>
+        <v>102</v>
       </c>
       <c r="CH1" t="s">
-        <v>1331</v>
+        <v>103</v>
       </c>
       <c r="CI1" t="s">
-        <v>1332</v>
+        <v>104</v>
       </c>
       <c r="CJ1" t="s">
-        <v>1333</v>
+        <v>105</v>
       </c>
       <c r="CK1" t="s">
-        <v>1334</v>
+        <v>106</v>
       </c>
       <c r="CL1" t="s">
-        <v>1335</v>
+        <v>107</v>
       </c>
       <c r="CM1" t="s">
-        <v>1336</v>
+        <v>108</v>
       </c>
       <c r="CN1" t="s">
-        <v>1337</v>
+        <v>109</v>
       </c>
       <c r="CO1" t="s">
-        <v>1338</v>
+        <v>110</v>
       </c>
       <c r="CP1" t="s">
-        <v>1339</v>
+        <v>111</v>
       </c>
       <c r="CQ1" t="s">
-        <v>1340</v>
+        <v>112</v>
       </c>
       <c r="CR1" t="s">
-        <v>1341</v>
+        <v>113</v>
       </c>
       <c r="CS1" t="s">
-        <v>1342</v>
+        <v>114</v>
       </c>
       <c r="CT1" t="s">
-        <v>1343</v>
+        <v>115</v>
       </c>
       <c r="CU1" t="s">
-        <v>1344</v>
+        <v>116</v>
       </c>
       <c r="CV1" t="s">
-        <v>1345</v>
+        <v>117</v>
       </c>
       <c r="CW1" t="s">
-        <v>1346</v>
+        <v>118</v>
       </c>
       <c r="CX1" t="s">
-        <v>1347</v>
+        <v>119</v>
       </c>
       <c r="CY1" t="s">
-        <v>1348</v>
+        <v>120</v>
       </c>
       <c r="CZ1" t="s">
-        <v>1349</v>
+        <v>121</v>
       </c>
       <c r="DA1" t="s">
-        <v>1350</v>
+        <v>122</v>
       </c>
       <c r="DB1" t="s">
-        <v>1351</v>
+        <v>123</v>
       </c>
       <c r="DC1" t="s">
-        <v>1352</v>
+        <v>124</v>
       </c>
       <c r="DD1" t="s">
-        <v>1353</v>
+        <v>125</v>
       </c>
       <c r="DE1" t="s">
-        <v>1354</v>
+        <v>126</v>
       </c>
       <c r="DF1" t="s">
-        <v>1355</v>
+        <v>127</v>
       </c>
       <c r="DG1" t="s">
-        <v>1356</v>
+        <v>128</v>
       </c>
       <c r="DH1" t="s">
-        <v>1357</v>
+        <v>129</v>
       </c>
       <c r="DI1" t="s">
-        <v>1358</v>
+        <v>130</v>
       </c>
       <c r="DJ1" t="s">
-        <v>1359</v>
+        <v>131</v>
       </c>
       <c r="DK1" t="s">
-        <v>1360</v>
+        <v>132</v>
       </c>
       <c r="DL1" t="s">
-        <v>1361</v>
+        <v>133</v>
       </c>
       <c r="DM1" t="s">
-        <v>1362</v>
+        <v>134</v>
       </c>
       <c r="DN1" t="s">
-        <v>1363</v>
+        <v>135</v>
       </c>
       <c r="DO1" t="s">
-        <v>1364</v>
+        <v>136</v>
       </c>
       <c r="DP1" t="s">
-        <v>1365</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1229</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1.20541853282356</v>
@@ -64334,10 +64344,10 @@
     </row>
     <row r="3" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1230</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1229</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1.17023526828877</v>
@@ -64696,10 +64706,10 @@
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1231</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1229</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1.0625905439111101</v>
@@ -65058,10 +65068,10 @@
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1232</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1233</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1.0494283362505701</v>
@@ -65420,10 +65430,10 @@
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1234</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>1233</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0.940569956051027</v>
@@ -65782,10 +65792,10 @@
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1235</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>1233</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1.0373282544597</v>
@@ -66144,10 +66154,10 @@
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1236</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>1237</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0.96334201266647901</v>
@@ -66506,10 +66516,10 @@
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1238</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>1237</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0.98089643306310803</v>
@@ -66868,10 +66878,10 @@
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1239</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>1237</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>0.94569422609670395</v>
@@ -67230,10 +67240,10 @@
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1240</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>1241</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>1.07507968865116</v>
@@ -67592,10 +67602,10 @@
     </row>
     <row r="12" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1242</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>1241</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>1.0477388760044399</v>
@@ -67954,10 +67964,10 @@
     </row>
     <row r="13" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1243</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>1241</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1.0544685735382899</v>
@@ -68316,10 +68326,10 @@
     </row>
     <row r="14" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1244</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>1245</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>0.87736942593530498</v>
@@ -68678,10 +68688,10 @@
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1246</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>1245</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>0.76227434720354803</v>
@@ -69040,10 +69050,10 @@
     </row>
     <row r="16" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1247</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>1245</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>0.68494530582339597</v>
@@ -69406,7 +69416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -69417,36 +69427,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1377</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1378</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>1366</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>1367</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
-        <v>1368</v>
+        <v>140</v>
       </c>
       <c r="F1" t="s">
-        <v>1369</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s">
-        <v>1370</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s">
-        <v>1371</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1229</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0.52064863295805497</v>
@@ -69469,10 +69479,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1230</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1229</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1.04928506552009</v>
@@ -69495,10 +69505,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1231</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1229</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1.91664134630762</v>
@@ -69521,10 +69531,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1232</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1233</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1.1894099363031601</v>
@@ -69547,10 +69557,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1234</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>1233</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1.7439986965807699</v>
@@ -69573,10 +69583,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1235</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>1233</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1.3542198881407601</v>
@@ -69599,10 +69609,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1236</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>1237</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7.1768957860914204</v>
@@ -69625,10 +69635,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1238</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>1237</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>9.4051623823535309</v>
@@ -69651,10 +69661,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1239</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>1237</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>0.76177084378155002</v>
@@ -69677,10 +69687,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1240</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>1241</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>-9.3195120056597802E-2</v>
@@ -69703,10 +69713,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1242</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>1241</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>-3.9722325155430997E-2</v>
@@ -69729,10 +69739,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1243</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>1241</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>0.53535171689615002</v>
@@ -69755,10 +69765,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1244</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>1245</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>5.1089030993261599E-2</v>
@@ -69781,10 +69791,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1246</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>1245</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>-8.3985294421171697E-2</v>
@@ -69807,10 +69817,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1247</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>1245</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>-0.34893074248210598</v>
@@ -69837,7 +69847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -69848,33 +69858,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1377</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>1378</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>1372</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>1373</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
-        <v>1374</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>1375</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>1376</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1229</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1.25100864315007</v>
@@ -69894,10 +69904,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1230</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1229</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1.15707117545444</v>
@@ -69917,10 +69927,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1231</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1229</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0.93568650539953402</v>
@@ -69940,10 +69950,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1232</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1233</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1.2766271839413399</v>
@@ -69963,10 +69973,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1234</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>1233</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1.3182658138130601</v>
@@ -69986,10 +69996,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1235</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>1233</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1.4254672912238799</v>
@@ -70009,10 +70019,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1236</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>1237</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>1.2379925387827899</v>
@@ -70032,10 +70042,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1238</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>1237</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>1.06947405020722</v>
@@ -70055,10 +70065,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1239</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>1237</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1.05606585933811</v>
@@ -70078,10 +70088,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1240</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>1241</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>1.27307100377074</v>
@@ -70101,10 +70111,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1242</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>1241</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>1.21209142906997</v>
@@ -70124,10 +70134,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1243</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>1241</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1.1967368000187499</v>
@@ -70147,10 +70157,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1244</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>1245</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>1.28251704822232</v>
@@ -70170,10 +70180,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1246</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>1245</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>1.1356281302767901</v>
@@ -70193,10 +70203,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1247</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>1245</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>1.3129907457202401</v>
